--- a/Daily Orders/February-2021-RetailerWiseOrder.xlsx
+++ b/Daily Orders/February-2021-RetailerWiseOrder.xlsx
@@ -402,10 +402,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="21">
@@ -426,23 +426,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,7 +455,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,47 +494,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -532,25 +517,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -568,8 +545,31 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -614,6 +614,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE1B884"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -626,31 +722,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,31 +758,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,97 +800,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,6 +829,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -841,8 +871,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -865,43 +906,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -910,13 +916,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -928,134 +934,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1118,6 +1124,10 @@
     </xf>
     <xf numFmtId="178" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1461,11 +1471,11 @@
   <dimension ref="A1:AS114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H63" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1589,37 +1599,37 @@
       <c r="AJ1" s="18">
         <v>44255</v>
       </c>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="19"/>
-      <c r="AQ1" s="19"/>
-      <c r="AR1" s="19"/>
-      <c r="AS1" s="19"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:36">
       <c r="A2" s="8"/>
       <c r="B2" s="9">
         <f>SUM(F3:F121)</f>
-        <v>168200</v>
+        <v>227700</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="10">
         <f>SUM(G3:G121)</f>
-        <v>0</v>
+        <v>61880</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="9">
         <f>G2/1.04+H2</f>
-        <v>168200</v>
+        <v>227700</v>
       </c>
       <c r="G2" s="10">
         <f t="shared" ref="G2:G16" si="0">SUM(I2:AM2)</f>
-        <v>0</v>
+        <v>61880</v>
       </c>
       <c r="H2" s="12">
         <f>SUM(H3:H121)</f>
@@ -1627,11 +1637,11 @@
       </c>
       <c r="I2" s="2">
         <f>SUM(I3:I121)</f>
-        <v>0</v>
+        <v>41080</v>
       </c>
       <c r="J2" s="2">
         <f>SUM(J3:J121)</f>
-        <v>0</v>
+        <v>20800</v>
       </c>
       <c r="K2" s="2">
         <f>SUM(K3:K121)</f>
@@ -1805,17 +1815,19 @@
       </c>
       <c r="F4" s="1">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="H4" s="14">
         <v>2000</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="J4" s="4">
+        <v>1040</v>
+      </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -1863,17 +1875,21 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" si="2"/>
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H5" s="14">
         <v>3500</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="I5" s="4">
+        <v>1040</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1040</v>
+      </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -1979,17 +1995,21 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" si="2"/>
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4160</v>
       </c>
       <c r="H7" s="14">
         <v>11000</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="I7" s="4">
+        <v>2080</v>
+      </c>
+      <c r="J7" s="4">
+        <v>2080</v>
+      </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -2260,16 +2280,18 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="H12" s="14">
         <v>0</v>
       </c>
-      <c r="I12" s="4"/>
+      <c r="I12" s="4">
+        <v>1040</v>
+      </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2703,17 +2725,19 @@
       </c>
       <c r="F20" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="H20" s="14">
         <v>1000</v>
       </c>
       <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="J20" s="4">
+        <v>1040</v>
+      </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
@@ -2758,16 +2782,18 @@
       </c>
       <c r="F21" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="H21" s="14">
         <v>0</v>
       </c>
-      <c r="I21" s="4"/>
+      <c r="I21" s="4">
+        <v>5200</v>
+      </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -2923,16 +2949,18 @@
       </c>
       <c r="F24" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="H24" s="14">
         <v>0</v>
       </c>
-      <c r="I24" s="4"/>
+      <c r="I24" s="4">
+        <v>5200</v>
+      </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -3088,17 +3116,18 @@
       </c>
       <c r="F27" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(J27:AM27)</f>
+        <v>2080</v>
       </c>
       <c r="H27" s="14">
         <v>0</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="J27" s="4">
+        <v>2080</v>
+      </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -3198,17 +3227,21 @@
       </c>
       <c r="F29" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5720</v>
       </c>
       <c r="H29" s="14">
         <v>0</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="I29" s="19">
+        <v>520</v>
+      </c>
+      <c r="J29" s="4">
+        <v>5200</v>
+      </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
@@ -3253,16 +3286,18 @@
       </c>
       <c r="F30" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="H30" s="14">
         <v>0</v>
       </c>
-      <c r="I30" s="4"/>
+      <c r="I30" s="4">
+        <v>5200</v>
+      </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
@@ -3418,16 +3453,18 @@
       </c>
       <c r="F33" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="H33" s="14">
         <v>0</v>
       </c>
-      <c r="I33" s="4"/>
+      <c r="I33" s="4">
+        <v>1040</v>
+      </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
@@ -3528,16 +3565,18 @@
       </c>
       <c r="F35" s="1">
         <f t="shared" ref="F35:F67" si="4">G35/1.04+H35</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3120</v>
       </c>
       <c r="H35" s="14">
         <v>0</v>
       </c>
-      <c r="I35" s="4"/>
+      <c r="I35" s="4">
+        <v>3120</v>
+      </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
@@ -3638,17 +3677,19 @@
       </c>
       <c r="F37" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3120</v>
       </c>
       <c r="H37" s="14">
         <v>0</v>
       </c>
       <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
+      <c r="J37" s="4">
+        <v>3120</v>
+      </c>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
@@ -3751,16 +3792,18 @@
       </c>
       <c r="F39" s="1">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G39" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H39" s="14">
         <v>2000</v>
       </c>
-      <c r="I39" s="4"/>
+      <c r="I39" s="4">
+        <v>2080</v>
+      </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
@@ -3861,16 +3904,18 @@
       </c>
       <c r="F41" s="1">
         <f t="shared" si="4"/>
-        <v>1500</v>
+        <v>4500</v>
       </c>
       <c r="G41" s="1">
         <f t="shared" ref="G41:G53" si="5">SUM(I41:AM41)</f>
-        <v>0</v>
+        <v>3120</v>
       </c>
       <c r="H41" s="14">
         <v>1500</v>
       </c>
-      <c r="I41" s="4"/>
+      <c r="I41" s="4">
+        <v>3120</v>
+      </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
@@ -4249,16 +4294,18 @@
       </c>
       <c r="F48" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3120</v>
       </c>
       <c r="H48" s="14">
         <v>3000</v>
       </c>
-      <c r="I48" s="4"/>
+      <c r="I48" s="4">
+        <v>3120</v>
+      </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -4745,16 +4792,18 @@
       </c>
       <c r="F57" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G57" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H57" s="14">
         <v>0</v>
       </c>
-      <c r="I57" s="4"/>
+      <c r="I57" s="4">
+        <v>2080</v>
+      </c>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
@@ -5136,16 +5185,18 @@
       </c>
       <c r="F64" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G64" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H64" s="14">
         <v>0</v>
       </c>
-      <c r="I64" s="4"/>
+      <c r="I64" s="4">
+        <v>2080</v>
+      </c>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
@@ -5468,16 +5519,18 @@
       </c>
       <c r="F70" s="1">
         <f t="shared" si="7"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G70" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="H70" s="14">
         <v>2000</v>
       </c>
-      <c r="I70" s="4"/>
+      <c r="I70" s="4">
+        <v>1040</v>
+      </c>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
@@ -5640,23 +5693,23 @@
       <c r="H73" s="14">
         <v>49000</v>
       </c>
-      <c r="I73" s="21"/>
-      <c r="J73" s="21"/>
-      <c r="K73" s="21"/>
-      <c r="L73" s="21"/>
-      <c r="M73" s="21"/>
-      <c r="N73" s="21"/>
-      <c r="O73" s="21"/>
-      <c r="P73" s="21"/>
-      <c r="Q73" s="21"/>
-      <c r="R73" s="21"/>
-      <c r="S73" s="21"/>
-      <c r="T73" s="21"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="22"/>
+      <c r="P73" s="22"/>
+      <c r="Q73" s="22"/>
+      <c r="R73" s="22"/>
+      <c r="S73" s="22"/>
+      <c r="T73" s="22"/>
       <c r="U73" s="4"/>
-      <c r="V73" s="22"/>
-      <c r="W73" s="22"/>
-      <c r="X73" s="22"/>
-      <c r="Y73" s="22"/>
+      <c r="V73" s="23"/>
+      <c r="W73" s="23"/>
+      <c r="X73" s="23"/>
+      <c r="Y73" s="23"/>
       <c r="Z73" s="4"/>
       <c r="AA73" s="4"/>
       <c r="AB73" s="4"/>
@@ -5687,16 +5740,18 @@
       </c>
       <c r="F74" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G74" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="H74" s="14">
         <v>0</v>
       </c>
-      <c r="I74" s="4"/>
+      <c r="I74" s="4">
+        <v>1040</v>
+      </c>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
@@ -5858,18 +5913,18 @@
       <c r="H77" s="14">
         <v>0</v>
       </c>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
-      <c r="K77" s="22"/>
-      <c r="L77" s="22"/>
-      <c r="M77" s="22"/>
-      <c r="N77" s="22"/>
-      <c r="O77" s="22"/>
-      <c r="P77" s="22"/>
-      <c r="Q77" s="22"/>
-      <c r="R77" s="22"/>
-      <c r="S77" s="22"/>
-      <c r="T77" s="22"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="23"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="23"/>
+      <c r="M77" s="23"/>
+      <c r="N77" s="23"/>
+      <c r="O77" s="23"/>
+      <c r="P77" s="23"/>
+      <c r="Q77" s="23"/>
+      <c r="R77" s="23"/>
+      <c r="S77" s="23"/>
+      <c r="T77" s="23"/>
       <c r="U77" s="4"/>
       <c r="V77" s="4"/>
       <c r="W77" s="4"/>
@@ -5908,16 +5963,18 @@
       </c>
       <c r="F78" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G78" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H78" s="14">
         <v>0</v>
       </c>
-      <c r="I78" s="4"/>
+      <c r="I78" s="19">
+        <v>2080</v>
+      </c>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
@@ -6141,24 +6198,24 @@
       <c r="H82" s="14">
         <v>0</v>
       </c>
-      <c r="I82" s="22"/>
-      <c r="J82" s="22"/>
-      <c r="K82" s="22"/>
-      <c r="L82" s="22"/>
-      <c r="M82" s="22"/>
-      <c r="N82" s="22"/>
-      <c r="O82" s="21"/>
-      <c r="P82" s="22"/>
-      <c r="Q82" s="22"/>
-      <c r="R82" s="22"/>
-      <c r="S82" s="22"/>
-      <c r="T82" s="22"/>
-      <c r="U82" s="22"/>
-      <c r="V82" s="22"/>
-      <c r="W82" s="21"/>
-      <c r="X82" s="22"/>
-      <c r="Y82" s="22"/>
-      <c r="Z82" s="22"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="23"/>
+      <c r="K82" s="23"/>
+      <c r="L82" s="23"/>
+      <c r="M82" s="23"/>
+      <c r="N82" s="23"/>
+      <c r="O82" s="22"/>
+      <c r="P82" s="23"/>
+      <c r="Q82" s="23"/>
+      <c r="R82" s="23"/>
+      <c r="S82" s="23"/>
+      <c r="T82" s="23"/>
+      <c r="U82" s="23"/>
+      <c r="V82" s="23"/>
+      <c r="W82" s="22"/>
+      <c r="X82" s="23"/>
+      <c r="Y82" s="23"/>
+      <c r="Z82" s="23"/>
       <c r="AA82" s="4"/>
       <c r="AB82" s="4"/>
       <c r="AC82" s="4"/>
@@ -6188,17 +6245,18 @@
       </c>
       <c r="F83" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G83" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>SUM(J83:AM83)</f>
+        <v>5200</v>
       </c>
       <c r="H83" s="14">
         <v>0</v>
       </c>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
+      <c r="J83" s="4">
+        <v>5200</v>
+      </c>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
       <c r="M83" s="4"/>
@@ -6303,17 +6361,17 @@
       <c r="H85" s="14">
         <v>0</v>
       </c>
-      <c r="I85" s="22"/>
-      <c r="J85" s="22"/>
-      <c r="K85" s="22"/>
-      <c r="L85" s="22"/>
-      <c r="M85" s="22"/>
-      <c r="N85" s="22"/>
-      <c r="O85" s="22"/>
-      <c r="P85" s="22"/>
-      <c r="Q85" s="22"/>
-      <c r="R85" s="22"/>
-      <c r="S85" s="22"/>
+      <c r="I85" s="23"/>
+      <c r="J85" s="23"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="23"/>
+      <c r="M85" s="23"/>
+      <c r="N85" s="23"/>
+      <c r="O85" s="23"/>
+      <c r="P85" s="23"/>
+      <c r="Q85" s="23"/>
+      <c r="R85" s="23"/>
+      <c r="S85" s="23"/>
       <c r="T85" s="4"/>
       <c r="U85" s="4"/>
       <c r="V85" s="4"/>
@@ -6359,25 +6417,25 @@
       <c r="H86" s="14">
         <v>0</v>
       </c>
-      <c r="I86" s="22"/>
-      <c r="J86" s="22"/>
-      <c r="K86" s="22"/>
-      <c r="L86" s="22"/>
-      <c r="M86" s="22"/>
-      <c r="N86" s="22"/>
-      <c r="O86" s="22"/>
-      <c r="P86" s="22"/>
-      <c r="Q86" s="22"/>
-      <c r="R86" s="22"/>
-      <c r="S86" s="22"/>
-      <c r="T86" s="22"/>
-      <c r="U86" s="22"/>
-      <c r="V86" s="22"/>
-      <c r="W86" s="22"/>
-      <c r="X86" s="22"/>
-      <c r="Y86" s="22"/>
-      <c r="Z86" s="22"/>
-      <c r="AA86" s="22"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="23"/>
+      <c r="K86" s="23"/>
+      <c r="L86" s="23"/>
+      <c r="M86" s="23"/>
+      <c r="N86" s="23"/>
+      <c r="O86" s="23"/>
+      <c r="P86" s="23"/>
+      <c r="Q86" s="23"/>
+      <c r="R86" s="23"/>
+      <c r="S86" s="23"/>
+      <c r="T86" s="23"/>
+      <c r="U86" s="23"/>
+      <c r="V86" s="23"/>
+      <c r="W86" s="23"/>
+      <c r="X86" s="23"/>
+      <c r="Y86" s="23"/>
+      <c r="Z86" s="23"/>
+      <c r="AA86" s="23"/>
       <c r="AB86" s="4"/>
       <c r="AC86" s="4"/>
       <c r="AD86" s="4"/>
@@ -6412,22 +6470,22 @@
       <c r="H87" s="14">
         <v>0</v>
       </c>
-      <c r="I87" s="22"/>
-      <c r="J87" s="22"/>
-      <c r="K87" s="22"/>
-      <c r="L87" s="22"/>
-      <c r="M87" s="22"/>
-      <c r="N87" s="22"/>
-      <c r="O87" s="22"/>
-      <c r="P87" s="22"/>
-      <c r="Q87" s="22"/>
-      <c r="R87" s="22"/>
-      <c r="S87" s="22"/>
-      <c r="T87" s="22"/>
-      <c r="U87" s="22"/>
-      <c r="V87" s="22"/>
-      <c r="W87" s="22"/>
-      <c r="X87" s="22"/>
+      <c r="I87" s="23"/>
+      <c r="J87" s="23"/>
+      <c r="K87" s="23"/>
+      <c r="L87" s="23"/>
+      <c r="M87" s="23"/>
+      <c r="N87" s="23"/>
+      <c r="O87" s="23"/>
+      <c r="P87" s="23"/>
+      <c r="Q87" s="23"/>
+      <c r="R87" s="23"/>
+      <c r="S87" s="23"/>
+      <c r="T87" s="23"/>
+      <c r="U87" s="23"/>
+      <c r="V87" s="23"/>
+      <c r="W87" s="23"/>
+      <c r="X87" s="23"/>
       <c r="Y87" s="4"/>
       <c r="Z87" s="4"/>
       <c r="AA87" s="4"/>
@@ -6823,7 +6881,7 @@
       <c r="A95" s="3">
         <v>93</v>
       </c>
-      <c r="E95" s="20" t="s">
+      <c r="E95" s="21" t="s">
         <v>124</v>
       </c>
       <c r="F95" s="1">

--- a/Daily Orders/February-2021-RetailerWiseOrder.xlsx
+++ b/Daily Orders/February-2021-RetailerWiseOrder.xlsx
@@ -16,6 +16,39 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Vijay</author>
+  </authors>
+  <commentList>
+    <comment ref="J7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+2080-Auto
+2080-Auto</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="126">
   <si>
@@ -402,13 +435,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,15 +459,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,8 +495,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,9 +525,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,56 +565,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -546,27 +580,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="40">
@@ -620,7 +664,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,7 +700,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,7 +712,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,13 +742,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,85 +820,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,19 +832,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,19 +844,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,6 +855,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -829,61 +882,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -906,8 +909,49 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -916,13 +960,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -934,130 +978,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1471,11 +1515,11 @@
   <dimension ref="A1:AS114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J83" sqref="J83"/>
+      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1613,23 +1657,23 @@
       <c r="A2" s="8"/>
       <c r="B2" s="9">
         <f>SUM(F3:F121)</f>
-        <v>227700</v>
+        <v>269700</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="10">
         <f>SUM(G3:G121)</f>
-        <v>61880</v>
+        <v>105560</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="9">
         <f>G2/1.04+H2</f>
-        <v>227700</v>
+        <v>269700</v>
       </c>
       <c r="G2" s="10">
         <f t="shared" ref="G2:G16" si="0">SUM(I2:AM2)</f>
-        <v>61880</v>
+        <v>105560</v>
       </c>
       <c r="H2" s="12">
         <f>SUM(H3:H121)</f>
@@ -1641,11 +1685,11 @@
       </c>
       <c r="J2" s="2">
         <f>SUM(J3:J121)</f>
-        <v>20800</v>
+        <v>53040</v>
       </c>
       <c r="K2" s="2">
         <f>SUM(K3:K121)</f>
-        <v>0</v>
+        <v>11440</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" ref="L2:AM2" si="1">SUM(L3:L121)</f>
@@ -1995,11 +2039,11 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H7" s="14">
         <v>11000</v>
@@ -2008,7 +2052,7 @@
         <v>2080</v>
       </c>
       <c r="J7" s="4">
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -2057,17 +2101,19 @@
       </c>
       <c r="F8" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H8" s="14">
         <v>0</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="J8" s="4">
+        <v>2080</v>
+      </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -2225,17 +2271,19 @@
       </c>
       <c r="F11" s="1">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H11" s="14">
         <v>2000</v>
       </c>
       <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="J11" s="4">
+        <v>2080</v>
+      </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -2280,11 +2328,11 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="H12" s="14">
         <v>0</v>
@@ -2292,7 +2340,9 @@
       <c r="I12" s="4">
         <v>1040</v>
       </c>
-      <c r="J12" s="4"/>
+      <c r="J12" s="4">
+        <v>1040</v>
+      </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -2560,17 +2610,19 @@
       </c>
       <c r="F17" s="1">
         <f t="shared" si="2"/>
-        <v>-1000</v>
+        <v>2000</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" ref="G17:G39" si="3">SUM(I17:AM17)</f>
-        <v>0</v>
+        <v>3120</v>
       </c>
       <c r="H17" s="14">
         <v>-1000</v>
       </c>
       <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="J17" s="4">
+        <v>3120</v>
+      </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
@@ -2615,18 +2667,20 @@
       </c>
       <c r="F18" s="1">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="H18" s="14">
         <v>5000</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="K18" s="4">
+        <v>5200</v>
+      </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -2839,17 +2893,19 @@
       </c>
       <c r="F22" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="H22" s="14">
         <v>1000</v>
       </c>
       <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="J22" s="4">
+        <v>1040</v>
+      </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -2894,17 +2950,19 @@
       </c>
       <c r="F23" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3120</v>
       </c>
       <c r="H23" s="14">
         <v>0</v>
       </c>
       <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="J23" s="4">
+        <v>3120</v>
+      </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -3398,17 +3456,19 @@
       </c>
       <c r="F32" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="H32" s="14">
         <v>1000</v>
       </c>
       <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="J32" s="4">
+        <v>1040</v>
+      </c>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
@@ -3904,11 +3964,11 @@
       </c>
       <c r="F41" s="1">
         <f t="shared" si="4"/>
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="G41" s="1">
         <f t="shared" ref="G41:G53" si="5">SUM(I41:AM41)</f>
-        <v>3120</v>
+        <v>6240</v>
       </c>
       <c r="H41" s="14">
         <v>1500</v>
@@ -3916,7 +3976,9 @@
       <c r="I41" s="4">
         <v>3120</v>
       </c>
-      <c r="J41" s="4"/>
+      <c r="J41" s="4">
+        <v>3120</v>
+      </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
@@ -4074,17 +4136,19 @@
       </c>
       <c r="F44" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G44" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3120</v>
       </c>
       <c r="H44" s="14">
         <v>0</v>
       </c>
       <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
+      <c r="J44" s="4">
+        <v>3120</v>
+      </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
@@ -4516,17 +4580,19 @@
       </c>
       <c r="F52" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G52" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="H52" s="14">
         <v>0</v>
       </c>
       <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
+      <c r="J52" s="4">
+        <v>1040</v>
+      </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
@@ -4682,17 +4748,19 @@
       </c>
       <c r="F55" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G55" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H55" s="14">
         <v>0</v>
       </c>
       <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
+      <c r="J55" s="4">
+        <v>2080</v>
+      </c>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
@@ -5242,17 +5310,19 @@
       </c>
       <c r="F65" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G65" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="H65" s="14">
         <v>0</v>
       </c>
       <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
+      <c r="J65" s="4">
+        <v>1040</v>
+      </c>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
@@ -5352,17 +5422,19 @@
       </c>
       <c r="F67" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G67" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3120</v>
       </c>
       <c r="H67" s="14">
         <v>0</v>
       </c>
       <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
+      <c r="J67" s="4">
+        <v>3120</v>
+      </c>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
@@ -5519,11 +5591,11 @@
       </c>
       <c r="F70" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G70" s="1">
         <f t="shared" si="6"/>
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="H70" s="14">
         <v>2000</v>
@@ -5531,7 +5603,9 @@
       <c r="I70" s="4">
         <v>1040</v>
       </c>
-      <c r="J70" s="4"/>
+      <c r="J70" s="4">
+        <v>1040</v>
+      </c>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
@@ -5740,11 +5814,11 @@
       </c>
       <c r="F74" s="1">
         <f t="shared" si="7"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G74" s="1">
         <f t="shared" si="6"/>
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="H74" s="14">
         <v>0</v>
@@ -5753,7 +5827,9 @@
         <v>1040</v>
       </c>
       <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
+      <c r="K74" s="4">
+        <v>1040</v>
+      </c>
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
@@ -5851,17 +5927,19 @@
       </c>
       <c r="F76" s="1">
         <f t="shared" si="7"/>
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="G76" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H76" s="14">
         <v>-2000</v>
       </c>
       <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
+      <c r="J76" s="4">
+        <v>2080</v>
+      </c>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
@@ -6727,18 +6805,20 @@
       </c>
       <c r="F92" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G92" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="H92" s="14">
         <v>0</v>
       </c>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
+      <c r="K92" s="4">
+        <v>5200</v>
+      </c>
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
@@ -7620,5 +7700,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Daily Orders/February-2021-RetailerWiseOrder.xlsx
+++ b/Daily Orders/February-2021-RetailerWiseOrder.xlsx
@@ -435,11 +435,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -453,6 +453,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -473,90 +488,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -572,9 +503,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,16 +570,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,25 +664,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,25 +676,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,13 +694,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,7 +718,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,19 +778,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,19 +820,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,37 +844,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,6 +855,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -886,31 +895,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,16 +942,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -960,13 +960,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -981,127 +981,127 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1515,11 +1515,11 @@
   <dimension ref="A1:AS114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="I72" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomRight" activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1657,23 +1657,23 @@
       <c r="A2" s="8"/>
       <c r="B2" s="9">
         <f>SUM(F3:F121)</f>
-        <v>269700</v>
+        <v>302700</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="10">
         <f>SUM(G3:G121)</f>
-        <v>105560</v>
+        <v>139880</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="9">
         <f>G2/1.04+H2</f>
-        <v>269700</v>
+        <v>302700</v>
       </c>
       <c r="G2" s="10">
         <f t="shared" ref="G2:G16" si="0">SUM(I2:AM2)</f>
-        <v>105560</v>
+        <v>139880</v>
       </c>
       <c r="H2" s="12">
         <f>SUM(H3:H121)</f>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="K2" s="2">
         <f>SUM(K3:K121)</f>
-        <v>11440</v>
+        <v>45760</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" ref="L2:AM2" si="1">SUM(L3:L121)</f>
@@ -1919,11 +1919,11 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" si="2"/>
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>3120</v>
       </c>
       <c r="H5" s="14">
         <v>3500</v>
@@ -1934,7 +1934,9 @@
       <c r="J5" s="4">
         <v>1040</v>
       </c>
-      <c r="K5" s="4"/>
+      <c r="K5" s="4">
+        <v>1040</v>
+      </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -2039,11 +2041,11 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" si="2"/>
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="H7" s="14">
         <v>11000</v>
@@ -2054,7 +2056,9 @@
       <c r="J7" s="4">
         <v>4160</v>
       </c>
-      <c r="K7" s="4"/>
+      <c r="K7" s="4">
+        <v>2080</v>
+      </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -2387,18 +2391,20 @@
       </c>
       <c r="F13" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="H13" s="14">
         <v>0</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="K13" s="4">
+        <v>5200</v>
+      </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -2442,18 +2448,20 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" si="2"/>
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="H14" s="14">
         <v>10500</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="K14" s="4">
+        <v>5200</v>
+      </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -3119,18 +3127,20 @@
       </c>
       <c r="F26" s="1">
         <f t="shared" si="2"/>
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H26" s="14">
         <v>2500</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+      <c r="K26" s="4">
+        <v>2080</v>
+      </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -3625,11 +3635,11 @@
       </c>
       <c r="F35" s="1">
         <f t="shared" ref="F35:F67" si="4">G35/1.04+H35</f>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" si="3"/>
-        <v>3120</v>
+        <v>6240</v>
       </c>
       <c r="H35" s="14">
         <v>0</v>
@@ -3638,7 +3648,9 @@
         <v>3120</v>
       </c>
       <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
+      <c r="K35" s="4">
+        <v>3120</v>
+      </c>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
@@ -4193,18 +4205,20 @@
       </c>
       <c r="F45" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G45" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3120</v>
       </c>
       <c r="H45" s="14">
         <v>3000</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
+      <c r="K45" s="4">
+        <v>3120</v>
+      </c>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
@@ -4303,18 +4317,20 @@
       </c>
       <c r="F47" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G47" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H47" s="14">
         <v>0</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
+      <c r="K47" s="4">
+        <v>2080</v>
+      </c>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
@@ -4415,18 +4431,20 @@
       </c>
       <c r="F49" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G49" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3120</v>
       </c>
       <c r="H49" s="14">
         <v>3000</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
+      <c r="K49" s="4">
+        <v>3120</v>
+      </c>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
@@ -5367,18 +5385,20 @@
       </c>
       <c r="F66" s="1">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G66" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="H66" s="14">
         <v>5000</v>
       </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
+      <c r="K66" s="4">
+        <v>5200</v>
+      </c>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
@@ -5705,18 +5725,20 @@
       </c>
       <c r="F72" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G72" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H72" s="14">
         <v>3000</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
+      <c r="K72" s="4">
+        <v>2080</v>
+      </c>
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>

--- a/Daily Orders/February-2021-RetailerWiseOrder.xlsx
+++ b/Daily Orders/February-2021-RetailerWiseOrder.xlsx
@@ -435,11 +435,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -459,7 +459,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,8 +512,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,75 +582,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,33 +595,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,7 +664,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,55 +688,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,7 +712,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,7 +742,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,7 +772,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,7 +802,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,49 +838,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,48 +855,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -932,11 +890,44 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -955,18 +946,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -978,130 +978,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1166,14 +1166,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -1515,11 +1515,11 @@
   <dimension ref="A1:AS114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="I72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="I34" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K72" sqref="K72"/>
+      <selection pane="bottomRight" activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1657,23 +1657,23 @@
       <c r="A2" s="8"/>
       <c r="B2" s="9">
         <f>SUM(F3:F121)</f>
-        <v>302700</v>
+        <v>348700</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="10">
         <f>SUM(G3:G121)</f>
-        <v>139880</v>
+        <v>187720</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="9">
         <f>G2/1.04+H2</f>
-        <v>302700</v>
+        <v>348700</v>
       </c>
       <c r="G2" s="10">
         <f t="shared" ref="G2:G16" si="0">SUM(I2:AM2)</f>
-        <v>139880</v>
+        <v>187720</v>
       </c>
       <c r="H2" s="12">
         <f>SUM(H3:H121)</f>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="L2" s="2">
         <f t="shared" ref="L2:AM2" si="1">SUM(L3:L121)</f>
-        <v>0</v>
+        <v>47840</v>
       </c>
       <c r="M2" s="2">
         <f t="shared" si="1"/>
@@ -2041,11 +2041,11 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" si="2"/>
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>8320</v>
+        <v>10400</v>
       </c>
       <c r="H7" s="14">
         <v>11000</v>
@@ -2059,7 +2059,9 @@
       <c r="K7" s="4">
         <v>2080</v>
       </c>
-      <c r="L7" s="4"/>
+      <c r="L7" s="4">
+        <v>2080</v>
+      </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -2220,11 +2222,11 @@
       </c>
       <c r="F10" s="1">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="H10" s="14">
         <v>5000</v>
@@ -2232,7 +2234,9 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="L10" s="4">
+        <v>5200</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -2732,11 +2736,11 @@
       </c>
       <c r="F19" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H19" s="14">
         <v>0</v>
@@ -2744,7 +2748,9 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="L19" s="4">
+        <v>2080</v>
+      </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -2958,11 +2964,11 @@
       </c>
       <c r="F23" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="3"/>
-        <v>3120</v>
+        <v>6240</v>
       </c>
       <c r="H23" s="14">
         <v>0</v>
@@ -2972,7 +2978,9 @@
         <v>3120</v>
       </c>
       <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
+      <c r="L23" s="4">
+        <v>3120</v>
+      </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
@@ -3015,11 +3023,11 @@
       </c>
       <c r="F24" s="1">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="3"/>
-        <v>5200</v>
+        <v>10400</v>
       </c>
       <c r="H24" s="14">
         <v>0</v>
@@ -3029,7 +3037,9 @@
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
+      <c r="L24" s="4">
+        <v>5200</v>
+      </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -3411,11 +3421,11 @@
       </c>
       <c r="F31" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H31" s="14">
         <v>1000</v>
@@ -3423,7 +3433,9 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
+      <c r="L31" s="4">
+        <v>2080</v>
+      </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
@@ -3466,11 +3478,11 @@
       </c>
       <c r="F32" s="1">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="3"/>
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="H32" s="14">
         <v>1000</v>
@@ -3480,7 +3492,9 @@
         <v>1040</v>
       </c>
       <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
+      <c r="L32" s="4">
+        <v>1040</v>
+      </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
@@ -3921,11 +3935,11 @@
       </c>
       <c r="F40" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G40" s="1">
         <f>SUM(J40:AM40)</f>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H40" s="14">
         <v>0</v>
@@ -3933,7 +3947,9 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
+      <c r="L40" s="4">
+        <v>2080</v>
+      </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
@@ -3976,11 +3992,11 @@
       </c>
       <c r="F41" s="1">
         <f t="shared" si="4"/>
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="G41" s="1">
         <f t="shared" ref="G41:G53" si="5">SUM(I41:AM41)</f>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="H41" s="14">
         <v>1500</v>
@@ -3992,7 +4008,9 @@
         <v>3120</v>
       </c>
       <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
+      <c r="L41" s="4">
+        <v>3120</v>
+      </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
@@ -4262,11 +4280,11 @@
       </c>
       <c r="F46" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G46" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3120</v>
       </c>
       <c r="H46" s="14">
         <v>0</v>
@@ -4274,7 +4292,9 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
+      <c r="L46" s="4">
+        <v>3120</v>
+      </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
@@ -4374,11 +4394,11 @@
       </c>
       <c r="F48" s="1">
         <f t="shared" si="4"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" si="5"/>
-        <v>3120</v>
+        <v>6240</v>
       </c>
       <c r="H48" s="14">
         <v>3000</v>
@@ -4388,7 +4408,9 @@
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
+      <c r="L48" s="4">
+        <v>3120</v>
+      </c>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
@@ -4598,11 +4620,11 @@
       </c>
       <c r="F52" s="1">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G52" s="1">
         <f t="shared" si="5"/>
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="H52" s="14">
         <v>0</v>
@@ -4612,7 +4634,9 @@
         <v>1040</v>
       </c>
       <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
+      <c r="L52" s="4">
+        <v>1040</v>
+      </c>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
@@ -4655,11 +4679,11 @@
       </c>
       <c r="F53" s="1">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G53" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H53" s="14">
         <v>2000</v>
@@ -4667,7 +4691,9 @@
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
+      <c r="L53" s="19">
+        <v>2080</v>
+      </c>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
@@ -4823,11 +4849,11 @@
       </c>
       <c r="F56" s="1">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G56" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="H56" s="14">
         <v>5000</v>
@@ -4835,7 +4861,9 @@
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
+      <c r="L56" s="4">
+        <v>5200</v>
+      </c>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
@@ -5050,11 +5078,11 @@
       </c>
       <c r="F60" s="1">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G60" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H60" s="14">
         <v>2000</v>
@@ -5062,7 +5090,9 @@
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
+      <c r="L60" s="4">
+        <v>2080</v>
+      </c>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
@@ -5161,11 +5191,11 @@
       </c>
       <c r="F62" s="1">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G62" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H62" s="14">
         <v>2000</v>
@@ -5173,7 +5203,9 @@
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
+      <c r="L62" s="4">
+        <v>2080</v>
+      </c>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
@@ -5670,11 +5702,11 @@
       </c>
       <c r="F71" s="1">
         <f t="shared" si="7"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="G71" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3120</v>
       </c>
       <c r="H71" s="14">
         <v>6000</v>
@@ -5682,7 +5714,9 @@
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
+      <c r="L71" s="4">
+        <v>3120</v>
+      </c>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>

--- a/Daily Orders/February-2021-RetailerWiseOrder.xlsx
+++ b/Daily Orders/February-2021-RetailerWiseOrder.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="127">
   <si>
     <t>S.No.</t>
   </si>
@@ -229,172 +229,175 @@
     <t>SONU PHONEX(661752239)</t>
   </si>
   <si>
+    <t>Vikash Amir Bigha</t>
+  </si>
+  <si>
+    <t>BHUMIKA ELECTRONICS(660320662)</t>
+  </si>
+  <si>
+    <t>CHANDAN TELECOM(661644693)</t>
+  </si>
+  <si>
+    <t>USRI</t>
+  </si>
+  <si>
+    <t>MEDIA MOBILE GALLERY(660315675)</t>
+  </si>
+  <si>
+    <t>PAWAN PAY PHONE(660297502)</t>
+  </si>
+  <si>
+    <t>KUMAR INTERNET(660322625)</t>
+  </si>
+  <si>
+    <t>PRITI MOBILE CENTRE(660297509)</t>
+  </si>
+  <si>
+    <t>PATEL TELECOM(661644686)</t>
+  </si>
+  <si>
+    <t>KRISH RAJ MOBILE &amp; ELECTRONIC(661032970)</t>
+  </si>
+  <si>
+    <t>UTKARSH ENTERPRISES(661673664)</t>
+  </si>
+  <si>
+    <t>DIVYANKA MOBILE CENTER(660315660)</t>
+  </si>
+  <si>
+    <t>Anant Mobile Gallery-(662173660)</t>
+  </si>
+  <si>
+    <t>Neha Phonex(660614432)</t>
+  </si>
+  <si>
+    <t>PARASI</t>
+  </si>
+  <si>
+    <t>ANISH MOBILE CENTER(661474493)</t>
+  </si>
+  <si>
+    <t>SINGH ENTERPRISES(660865703)</t>
+  </si>
+  <si>
+    <t>KALER ENTERPRISES(661674410)</t>
+  </si>
+  <si>
+    <t>BADRABAD</t>
+  </si>
+  <si>
+    <t>ANJALI MOBILE RAMPURCHAE(661735620)</t>
+  </si>
+  <si>
+    <t>0681066927/0681961014</t>
+  </si>
+  <si>
+    <t>MAA VINDHYAVASINI MOBILE CENTE(660064218)</t>
+  </si>
+  <si>
+    <t>ITWA</t>
+  </si>
+  <si>
+    <t>chintu electronics(662114680)</t>
+  </si>
+  <si>
+    <t>NIRANJANPUR</t>
+  </si>
+  <si>
+    <t>RAJESH TELECOM(661613671)</t>
+  </si>
+  <si>
+    <t>CHANDA</t>
+  </si>
+  <si>
+    <t>MAA TELECOM(661361714)</t>
+  </si>
+  <si>
+    <t>RAJU TELECOM(661673669)</t>
+  </si>
+  <si>
+    <t>satyam mobile(661811583)</t>
+  </si>
+  <si>
+    <t>ARYANS PRINTER REPAIRING CENTE(662074228)</t>
+  </si>
+  <si>
+    <t>SHASHI PAY PHONE(661176231)</t>
+  </si>
+  <si>
+    <t>SANDEEP TELECOM(661066825)</t>
+  </si>
+  <si>
+    <t>SHRI SAI ELECTRONICS(661673670)</t>
+  </si>
+  <si>
+    <t>RAJESH TELECOM &amp; KIRANA DUKAN(661063895)</t>
+  </si>
+  <si>
+    <t>BELSAR</t>
+  </si>
+  <si>
+    <t>NISHA GENERAL STORE(661644683)</t>
+  </si>
+  <si>
+    <t>PRAKASH GENERAL SRINGAR STORE(661303685)</t>
+  </si>
+  <si>
+    <t>ANAND SRINGAR STORE(660831268)</t>
+  </si>
+  <si>
+    <t>ROHIT SHOE STORE(661670729)</t>
+  </si>
+  <si>
+    <t>Dhewai</t>
+  </si>
+  <si>
+    <t>maa phone ghar(662077151)</t>
+  </si>
+  <si>
+    <t>Payal Communication(660614430)</t>
+  </si>
+  <si>
+    <t>KAMTA</t>
+  </si>
+  <si>
+    <t>GRAMOTHAN SEVA KENDRA(661705272)</t>
+  </si>
+  <si>
+    <t>Rounk Mobile and Electronics(660584652)</t>
+  </si>
+  <si>
+    <t>Arwal</t>
+  </si>
+  <si>
+    <t>SANGAM ENTERPRISES(661591706)</t>
+  </si>
+  <si>
+    <t>SHASHANK MOBILE(661969234)</t>
+  </si>
+  <si>
+    <t>SONU PHONE GHAR(660815245)</t>
+  </si>
+  <si>
+    <t>SANGAM GENERAL STORE(661644708)</t>
+  </si>
+  <si>
+    <t>Rupsagar</t>
+  </si>
+  <si>
+    <t>sugam phone bathe(661711006)</t>
+  </si>
+  <si>
+    <t>RAJ PHONE HIRDYACHAK(661712682)</t>
+  </si>
+  <si>
+    <t>JANTA SEVA KENDRA(661752229)</t>
+  </si>
+  <si>
+    <t>MUSKAN COMMUNICATION(662077126)</t>
+  </si>
+  <si>
     <t>Amit Amir Bigha</t>
-  </si>
-  <si>
-    <t>BHUMIKA ELECTRONICS(660320662)</t>
-  </si>
-  <si>
-    <t>CHANDAN TELECOM(661644693)</t>
-  </si>
-  <si>
-    <t>USRI</t>
-  </si>
-  <si>
-    <t>MEDIA MOBILE GALLERY(660315675)</t>
-  </si>
-  <si>
-    <t>PAWAN PAY PHONE(660297502)</t>
-  </si>
-  <si>
-    <t>KUMAR INTERNET(660322625)</t>
-  </si>
-  <si>
-    <t>PRITI MOBILE CENTRE(660297509)</t>
-  </si>
-  <si>
-    <t>PATEL TELECOM(661644686)</t>
-  </si>
-  <si>
-    <t>KRISH RAJ MOBILE &amp; ELECTRONIC(661032970)</t>
-  </si>
-  <si>
-    <t>UTKARSH ENTERPRISES(661673664)</t>
-  </si>
-  <si>
-    <t>DIVYANKA MOBILE CENTER(660315660)</t>
-  </si>
-  <si>
-    <t>Anant Mobile Gallery-(662173660)</t>
-  </si>
-  <si>
-    <t>Neha Phonex(660614432)</t>
-  </si>
-  <si>
-    <t>PARASI</t>
-  </si>
-  <si>
-    <t>ANISH MOBILE CENTER(661474493)</t>
-  </si>
-  <si>
-    <t>SINGH ENTERPRISES(660865703)</t>
-  </si>
-  <si>
-    <t>KALER ENTERPRISES(661674410)</t>
-  </si>
-  <si>
-    <t>BADRABAD</t>
-  </si>
-  <si>
-    <t>ANJALI MOBILE RAMPURCHAE(661735620)</t>
-  </si>
-  <si>
-    <t>0681066927/0681961014</t>
-  </si>
-  <si>
-    <t>MAA VINDHYAVASINI MOBILE CENTE(660064218)</t>
-  </si>
-  <si>
-    <t>ITWA</t>
-  </si>
-  <si>
-    <t>chintu electronics(662114680)</t>
-  </si>
-  <si>
-    <t>NIRANJANPUR</t>
-  </si>
-  <si>
-    <t>RAJESH TELECOM(661613671)</t>
-  </si>
-  <si>
-    <t>CHANDA</t>
-  </si>
-  <si>
-    <t>MAA TELECOM(661361714)</t>
-  </si>
-  <si>
-    <t>RAJU TELECOM(661673669)</t>
-  </si>
-  <si>
-    <t>satyam mobile(661811583)</t>
-  </si>
-  <si>
-    <t>ARYANS PRINTER REPAIRING CENTE(662074228)</t>
-  </si>
-  <si>
-    <t>SHASHI PAY PHONE(661176231)</t>
-  </si>
-  <si>
-    <t>SANDEEP TELECOM(661066825)</t>
-  </si>
-  <si>
-    <t>SHRI SAI ELECTRONICS(661673670)</t>
-  </si>
-  <si>
-    <t>RAJESH TELECOM &amp; KIRANA DUKAN(661063895)</t>
-  </si>
-  <si>
-    <t>BELSAR</t>
-  </si>
-  <si>
-    <t>NISHA GENERAL STORE(661644683)</t>
-  </si>
-  <si>
-    <t>PRAKASH GENERAL SRINGAR STORE(661303685)</t>
-  </si>
-  <si>
-    <t>ANAND SRINGAR STORE(660831268)</t>
-  </si>
-  <si>
-    <t>ROHIT SHOE STORE(661670729)</t>
-  </si>
-  <si>
-    <t>Dhewai</t>
-  </si>
-  <si>
-    <t>maa phone ghar(662077151)</t>
-  </si>
-  <si>
-    <t>Payal Communication(660614430)</t>
-  </si>
-  <si>
-    <t>KAMTA</t>
-  </si>
-  <si>
-    <t>GRAMOTHAN SEVA KENDRA(661705272)</t>
-  </si>
-  <si>
-    <t>Rounk Mobile and Electronics(660584652)</t>
-  </si>
-  <si>
-    <t>Arwal</t>
-  </si>
-  <si>
-    <t>SANGAM ENTERPRISES(661591706)</t>
-  </si>
-  <si>
-    <t>SHASHANK MOBILE(661969234)</t>
-  </si>
-  <si>
-    <t>SONU PHONE GHAR(660815245)</t>
-  </si>
-  <si>
-    <t>SANGAM GENERAL STORE(661644708)</t>
-  </si>
-  <si>
-    <t>Rupsagar</t>
-  </si>
-  <si>
-    <t>sugam phone bathe(661711006)</t>
-  </si>
-  <si>
-    <t>RAJ PHONE HIRDYACHAK(661712682)</t>
-  </si>
-  <si>
-    <t>JANTA SEVA KENDRA(661752229)</t>
-  </si>
-  <si>
-    <t>MUSKAN COMMUNICATION(662077126)</t>
   </si>
   <si>
     <t>KRISHNA KIRANA STORE(661613674)</t>
@@ -436,10 +439,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -458,33 +461,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -499,6 +480,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,8 +508,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -535,22 +590,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -558,45 +597,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,25 +667,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,13 +721,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,109 +823,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,13 +841,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,80 +858,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -955,18 +884,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -978,134 +981,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1166,15 +1169,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1515,11 +1522,11 @@
   <dimension ref="A1:AS114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="I34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="K20" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L51" sqref="L51"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1657,23 +1664,23 @@
       <c r="A2" s="8"/>
       <c r="B2" s="9">
         <f>SUM(F3:F121)</f>
-        <v>348700</v>
+        <v>445700</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="10">
         <f>SUM(G3:G121)</f>
-        <v>187720</v>
+        <v>288600</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="9">
         <f>G2/1.04+H2</f>
-        <v>348700</v>
+        <v>445700</v>
       </c>
       <c r="G2" s="10">
         <f t="shared" ref="G2:G16" si="0">SUM(I2:AM2)</f>
-        <v>187720</v>
+        <v>288600</v>
       </c>
       <c r="H2" s="12">
         <f>SUM(H3:H121)</f>
@@ -1697,15 +1704,15 @@
       </c>
       <c r="M2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26000</v>
       </c>
       <c r="N2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>45760</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>29120</v>
       </c>
       <c r="P2" s="2">
         <f t="shared" si="1"/>
@@ -1859,11 +1866,11 @@
       </c>
       <c r="F4" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="H4" s="14">
         <v>2000</v>
@@ -1876,7 +1883,9 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+      <c r="O4" s="4">
+        <v>1040</v>
+      </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -1919,11 +1928,11 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" si="2"/>
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
-        <v>3120</v>
+        <v>4160</v>
       </c>
       <c r="H5" s="14">
         <v>3500</v>
@@ -1939,7 +1948,9 @@
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="N5" s="4">
+        <v>1040</v>
+      </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -1983,11 +1994,11 @@
       </c>
       <c r="F6" s="1">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="H6" s="14">
         <v>5000</v>
@@ -1997,7 +2008,9 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="N6" s="4">
+        <v>5200</v>
+      </c>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -2041,11 +2054,11 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" si="2"/>
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>10400</v>
+        <v>12480</v>
       </c>
       <c r="H7" s="14">
         <v>11000</v>
@@ -2063,7 +2076,9 @@
         <v>2080</v>
       </c>
       <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+      <c r="N7" s="4">
+        <v>2080</v>
+      </c>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -2336,11 +2351,11 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>3120</v>
       </c>
       <c r="H12" s="14">
         <v>0</v>
@@ -2353,7 +2368,9 @@
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
+      <c r="M12" s="4">
+        <v>1040</v>
+      </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -2452,11 +2469,11 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" si="2"/>
-        <v>15500</v>
+        <v>20500</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
-        <v>5200</v>
+        <v>10400</v>
       </c>
       <c r="H14" s="14">
         <v>10500</v>
@@ -2468,7 +2485,9 @@
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
+      <c r="N14" s="4">
+        <v>5200</v>
+      </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
@@ -2512,11 +2531,11 @@
       </c>
       <c r="F15" s="1">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H15" s="14">
         <v>2000</v>
@@ -2525,7 +2544,9 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+      <c r="M15" s="4">
+        <v>2080</v>
+      </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
@@ -2793,11 +2814,11 @@
       </c>
       <c r="F20" s="1">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="3"/>
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="H20" s="14">
         <v>1000</v>
@@ -2809,7 +2830,9 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
+      <c r="N20" s="4">
+        <v>1040</v>
+      </c>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
@@ -2850,11 +2873,11 @@
       </c>
       <c r="F21" s="1">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="3"/>
-        <v>5200</v>
+        <v>10400</v>
       </c>
       <c r="H21" s="14">
         <v>0</v>
@@ -2865,7 +2888,9 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
+      <c r="M21" s="4">
+        <v>5200</v>
+      </c>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
@@ -2907,11 +2932,11 @@
       </c>
       <c r="F22" s="1">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="3"/>
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="H22" s="14">
         <v>1000</v>
@@ -2924,7 +2949,9 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
+      <c r="O22" s="4">
+        <v>1040</v>
+      </c>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -3137,11 +3164,11 @@
       </c>
       <c r="F26" s="1">
         <f t="shared" si="2"/>
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="3"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H26" s="14">
         <v>2500</v>
@@ -3154,7 +3181,9 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
+      <c r="O26" s="4">
+        <v>2080</v>
+      </c>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
@@ -3364,11 +3393,11 @@
       </c>
       <c r="F30" s="1">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="3"/>
-        <v>5200</v>
+        <v>10400</v>
       </c>
       <c r="H30" s="14">
         <v>0</v>
@@ -3379,7 +3408,9 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
+      <c r="M30" s="4">
+        <v>5200</v>
+      </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
@@ -3421,11 +3452,11 @@
       </c>
       <c r="F31" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="3"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H31" s="14">
         <v>1000</v>
@@ -3438,7 +3469,9 @@
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
+      <c r="O31" s="4">
+        <v>2080</v>
+      </c>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
@@ -3478,11 +3511,11 @@
       </c>
       <c r="F32" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="3"/>
-        <v>2080</v>
+        <v>3120</v>
       </c>
       <c r="H32" s="14">
         <v>1000</v>
@@ -3497,7 +3530,9 @@
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
+      <c r="O32" s="4">
+        <v>1040</v>
+      </c>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
@@ -3537,11 +3572,11 @@
       </c>
       <c r="F33" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" si="3"/>
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="H33" s="14">
         <v>0</v>
@@ -3554,7 +3589,9 @@
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
+      <c r="O33" s="4">
+        <v>1040</v>
+      </c>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
@@ -3649,11 +3686,11 @@
       </c>
       <c r="F35" s="1">
         <f t="shared" ref="F35:F67" si="4">G35/1.04+H35</f>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" si="3"/>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="H35" s="14">
         <v>0</v>
@@ -3666,7 +3703,9 @@
         <v>3120</v>
       </c>
       <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
+      <c r="M35" s="4">
+        <v>3120</v>
+      </c>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
@@ -3992,11 +4031,11 @@
       </c>
       <c r="F41" s="1">
         <f t="shared" si="4"/>
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="G41" s="1">
         <f t="shared" ref="G41:G53" si="5">SUM(I41:AM41)</f>
-        <v>9360</v>
+        <v>12480</v>
       </c>
       <c r="H41" s="14">
         <v>1500</v>
@@ -4013,7 +4052,9 @@
       </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
+      <c r="O41" s="4">
+        <v>3120</v>
+      </c>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
@@ -4166,11 +4207,11 @@
       </c>
       <c r="F44" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G44" s="1">
         <f t="shared" si="5"/>
-        <v>3120</v>
+        <v>6240</v>
       </c>
       <c r="H44" s="14">
         <v>0</v>
@@ -4182,7 +4223,9 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
+      <c r="N44" s="4">
+        <v>3120</v>
+      </c>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
@@ -4223,11 +4266,11 @@
       </c>
       <c r="F45" s="1">
         <f t="shared" si="4"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="G45" s="1">
         <f t="shared" si="5"/>
-        <v>3120</v>
+        <v>6240</v>
       </c>
       <c r="H45" s="14">
         <v>3000</v>
@@ -4240,7 +4283,9 @@
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
+      <c r="O45" s="4">
+        <v>3120</v>
+      </c>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
@@ -4280,11 +4325,11 @@
       </c>
       <c r="F46" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G46" s="1">
         <f t="shared" si="5"/>
-        <v>3120</v>
+        <v>6240</v>
       </c>
       <c r="H46" s="14">
         <v>0</v>
@@ -4297,7 +4342,9 @@
       </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
+      <c r="O46" s="4">
+        <v>3120</v>
+      </c>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
@@ -4394,11 +4441,11 @@
       </c>
       <c r="F48" s="1">
         <f t="shared" si="4"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" si="5"/>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="H48" s="14">
         <v>3000</v>
@@ -4412,7 +4459,9 @@
         <v>3120</v>
       </c>
       <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
+      <c r="N48" s="4">
+        <v>3120</v>
+      </c>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
@@ -4510,11 +4559,11 @@
       </c>
       <c r="F50" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G50" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H50" s="14">
         <v>0</v>
@@ -4523,7 +4572,9 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
+      <c r="M50" s="4">
+        <v>2080</v>
+      </c>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
@@ -4620,11 +4671,11 @@
       </c>
       <c r="F52" s="1">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G52" s="1">
         <f t="shared" si="5"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H52" s="14">
         <v>0</v>
@@ -4638,8 +4689,12 @@
         <v>1040</v>
       </c>
       <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
+      <c r="N52" s="4">
+        <v>1040</v>
+      </c>
+      <c r="O52" s="4">
+        <v>1040</v>
+      </c>
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
@@ -4964,11 +5019,11 @@
       </c>
       <c r="F58" s="1">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G58" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="H58" s="14">
         <v>5000</v>
@@ -4978,7 +5033,9 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
+      <c r="N58" s="4">
+        <v>5200</v>
+      </c>
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
@@ -5022,11 +5079,11 @@
       </c>
       <c r="F59" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G59" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="H59" s="14">
         <v>0</v>
@@ -5037,7 +5094,9 @@
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
+      <c r="O59" s="4">
+        <v>5200</v>
+      </c>
       <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
@@ -5078,11 +5137,11 @@
       </c>
       <c r="F60" s="1">
         <f t="shared" si="4"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G60" s="1">
         <f t="shared" si="6"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H60" s="14">
         <v>2000</v>
@@ -5094,7 +5153,9 @@
         <v>2080</v>
       </c>
       <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
+      <c r="N60" s="4">
+        <v>2080</v>
+      </c>
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
@@ -5248,11 +5309,11 @@
       </c>
       <c r="F63" s="1">
         <f t="shared" si="4"/>
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="G63" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H63" s="14">
         <v>-2000</v>
@@ -5262,7 +5323,9 @@
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
+      <c r="N63" s="4">
+        <v>2080</v>
+      </c>
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
@@ -5417,11 +5480,11 @@
       </c>
       <c r="F66" s="1">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G66" s="1">
         <f t="shared" si="6"/>
-        <v>5200</v>
+        <v>10400</v>
       </c>
       <c r="H66" s="14">
         <v>5000</v>
@@ -5433,7 +5496,9 @@
       </c>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
+      <c r="N66" s="4">
+        <v>5200</v>
+      </c>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
@@ -5474,11 +5539,11 @@
       </c>
       <c r="F67" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G67" s="1">
         <f t="shared" si="6"/>
-        <v>3120</v>
+        <v>6240</v>
       </c>
       <c r="H67" s="14">
         <v>0</v>
@@ -5491,7 +5556,9 @@
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
-      <c r="O67" s="4"/>
+      <c r="O67" s="4">
+        <v>3120</v>
+      </c>
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
@@ -5532,11 +5599,11 @@
       </c>
       <c r="F68" s="1">
         <f t="shared" ref="F68:F96" si="7">G68/1.04+H68</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G68" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H68" s="14">
         <v>0</v>
@@ -5547,7 +5614,9 @@
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
-      <c r="O68" s="4"/>
+      <c r="O68" s="4">
+        <v>2080</v>
+      </c>
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
@@ -5643,11 +5712,11 @@
       </c>
       <c r="F70" s="1">
         <f t="shared" si="7"/>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G70" s="1">
         <f t="shared" si="6"/>
-        <v>2080</v>
+        <v>3120</v>
       </c>
       <c r="H70" s="14">
         <v>2000</v>
@@ -5660,7 +5729,9 @@
       </c>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
+      <c r="M70" s="4">
+        <v>1040</v>
+      </c>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
@@ -5702,11 +5773,11 @@
       </c>
       <c r="F71" s="1">
         <f t="shared" si="7"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="G71" s="1">
         <f t="shared" si="6"/>
-        <v>3120</v>
+        <v>6240</v>
       </c>
       <c r="H71" s="14">
         <v>6000</v>
@@ -5718,7 +5789,9 @@
         <v>3120</v>
       </c>
       <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
+      <c r="N71" s="4">
+        <v>3120</v>
+      </c>
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
       <c r="Q71" s="4"/>
@@ -5759,11 +5832,11 @@
       </c>
       <c r="F72" s="1">
         <f t="shared" si="7"/>
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="G72" s="1">
         <f t="shared" si="6"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H72" s="14">
         <v>3000</v>
@@ -5775,7 +5848,9 @@
       </c>
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
+      <c r="N72" s="4">
+        <v>2080</v>
+      </c>
       <c r="O72" s="4"/>
       <c r="P72" s="4"/>
       <c r="Q72" s="4"/>
@@ -5823,23 +5898,23 @@
       <c r="H73" s="14">
         <v>49000</v>
       </c>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="22"/>
-      <c r="L73" s="22"/>
-      <c r="M73" s="22"/>
-      <c r="N73" s="22"/>
-      <c r="O73" s="22"/>
-      <c r="P73" s="22"/>
-      <c r="Q73" s="22"/>
-      <c r="R73" s="22"/>
-      <c r="S73" s="22"/>
-      <c r="T73" s="22"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="23"/>
+      <c r="M73" s="23"/>
+      <c r="N73" s="23"/>
+      <c r="O73" s="23"/>
+      <c r="P73" s="23"/>
+      <c r="Q73" s="23"/>
+      <c r="R73" s="23"/>
+      <c r="S73" s="23"/>
+      <c r="T73" s="23"/>
       <c r="U73" s="4"/>
-      <c r="V73" s="23"/>
-      <c r="W73" s="23"/>
-      <c r="X73" s="23"/>
-      <c r="Y73" s="23"/>
+      <c r="V73" s="24"/>
+      <c r="W73" s="24"/>
+      <c r="X73" s="24"/>
+      <c r="Y73" s="24"/>
       <c r="Z73" s="4"/>
       <c r="AA73" s="4"/>
       <c r="AB73" s="4"/>
@@ -6047,18 +6122,18 @@
       <c r="H77" s="14">
         <v>0</v>
       </c>
-      <c r="I77" s="23"/>
-      <c r="J77" s="23"/>
-      <c r="K77" s="23"/>
-      <c r="L77" s="23"/>
-      <c r="M77" s="23"/>
-      <c r="N77" s="23"/>
-      <c r="O77" s="23"/>
-      <c r="P77" s="23"/>
-      <c r="Q77" s="23"/>
-      <c r="R77" s="23"/>
-      <c r="S77" s="23"/>
-      <c r="T77" s="23"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="24"/>
+      <c r="M77" s="24"/>
+      <c r="N77" s="24"/>
+      <c r="O77" s="24"/>
+      <c r="P77" s="24"/>
+      <c r="Q77" s="24"/>
+      <c r="R77" s="24"/>
+      <c r="S77" s="24"/>
+      <c r="T77" s="24"/>
       <c r="U77" s="4"/>
       <c r="V77" s="4"/>
       <c r="W77" s="4"/>
@@ -6097,11 +6172,11 @@
       </c>
       <c r="F78" s="1">
         <f t="shared" si="7"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G78" s="1">
         <f t="shared" si="8"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H78" s="14">
         <v>0</v>
@@ -6113,7 +6188,9 @@
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
+      <c r="N78" s="19">
+        <v>2080</v>
+      </c>
       <c r="O78" s="4"/>
       <c r="P78" s="4"/>
       <c r="Q78" s="4"/>
@@ -6267,11 +6344,11 @@
       </c>
       <c r="F81" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G81" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="H81" s="14">
         <v>0</v>
@@ -6281,7 +6358,9 @@
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
+      <c r="N81" s="4">
+        <v>1040</v>
+      </c>
       <c r="O81" s="4"/>
       <c r="P81" s="4"/>
       <c r="Q81" s="4"/>
@@ -6332,24 +6411,24 @@
       <c r="H82" s="14">
         <v>0</v>
       </c>
-      <c r="I82" s="23"/>
-      <c r="J82" s="23"/>
-      <c r="K82" s="23"/>
-      <c r="L82" s="23"/>
-      <c r="M82" s="23"/>
-      <c r="N82" s="23"/>
-      <c r="O82" s="22"/>
-      <c r="P82" s="23"/>
-      <c r="Q82" s="23"/>
-      <c r="R82" s="23"/>
-      <c r="S82" s="23"/>
-      <c r="T82" s="23"/>
-      <c r="U82" s="23"/>
-      <c r="V82" s="23"/>
-      <c r="W82" s="22"/>
-      <c r="X82" s="23"/>
-      <c r="Y82" s="23"/>
-      <c r="Z82" s="23"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="24"/>
+      <c r="M82" s="24"/>
+      <c r="N82" s="24"/>
+      <c r="O82" s="23"/>
+      <c r="P82" s="24"/>
+      <c r="Q82" s="24"/>
+      <c r="R82" s="24"/>
+      <c r="S82" s="24"/>
+      <c r="T82" s="24"/>
+      <c r="U82" s="24"/>
+      <c r="V82" s="24"/>
+      <c r="W82" s="23"/>
+      <c r="X82" s="24"/>
+      <c r="Y82" s="24"/>
+      <c r="Z82" s="24"/>
       <c r="AA82" s="4"/>
       <c r="AB82" s="4"/>
       <c r="AC82" s="4"/>
@@ -6379,11 +6458,11 @@
       </c>
       <c r="F83" s="1">
         <f t="shared" si="7"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G83" s="1">
         <f>SUM(J83:AM83)</f>
-        <v>5200</v>
+        <v>10400</v>
       </c>
       <c r="H83" s="14">
         <v>0</v>
@@ -6392,8 +6471,9 @@
         <v>5200</v>
       </c>
       <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
+      <c r="M83" s="4">
+        <v>5200</v>
+      </c>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
@@ -6495,17 +6575,17 @@
       <c r="H85" s="14">
         <v>0</v>
       </c>
-      <c r="I85" s="23"/>
-      <c r="J85" s="23"/>
-      <c r="K85" s="23"/>
-      <c r="L85" s="23"/>
-      <c r="M85" s="23"/>
-      <c r="N85" s="23"/>
-      <c r="O85" s="23"/>
-      <c r="P85" s="23"/>
-      <c r="Q85" s="23"/>
-      <c r="R85" s="23"/>
-      <c r="S85" s="23"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="24"/>
+      <c r="O85" s="24"/>
+      <c r="P85" s="24"/>
+      <c r="Q85" s="24"/>
+      <c r="R85" s="24"/>
+      <c r="S85" s="24"/>
       <c r="T85" s="4"/>
       <c r="U85" s="4"/>
       <c r="V85" s="4"/>
@@ -6533,43 +6613,47 @@
       <c r="A86" s="3">
         <v>84</v>
       </c>
-      <c r="B86" s="16"/>
+      <c r="B86" s="21" t="s">
+        <v>115</v>
+      </c>
       <c r="C86" s="3">
         <v>683909556</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F86" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G86" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="H86" s="14">
         <v>0</v>
       </c>
-      <c r="I86" s="23"/>
-      <c r="J86" s="23"/>
-      <c r="K86" s="23"/>
-      <c r="L86" s="23"/>
-      <c r="M86" s="23"/>
-      <c r="N86" s="23"/>
-      <c r="O86" s="23"/>
-      <c r="P86" s="23"/>
-      <c r="Q86" s="23"/>
-      <c r="R86" s="23"/>
-      <c r="S86" s="23"/>
-      <c r="T86" s="23"/>
-      <c r="U86" s="23"/>
-      <c r="V86" s="23"/>
-      <c r="W86" s="23"/>
-      <c r="X86" s="23"/>
-      <c r="Y86" s="23"/>
-      <c r="Z86" s="23"/>
-      <c r="AA86" s="23"/>
+      <c r="I86" s="24"/>
+      <c r="J86" s="24"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="24"/>
+      <c r="M86" s="23">
+        <v>1040</v>
+      </c>
+      <c r="N86" s="24"/>
+      <c r="O86" s="24"/>
+      <c r="P86" s="24"/>
+      <c r="Q86" s="24"/>
+      <c r="R86" s="24"/>
+      <c r="S86" s="24"/>
+      <c r="T86" s="24"/>
+      <c r="U86" s="24"/>
+      <c r="V86" s="24"/>
+      <c r="W86" s="24"/>
+      <c r="X86" s="24"/>
+      <c r="Y86" s="24"/>
+      <c r="Z86" s="24"/>
+      <c r="AA86" s="24"/>
       <c r="AB86" s="4"/>
       <c r="AC86" s="4"/>
       <c r="AD86" s="4"/>
@@ -6591,7 +6675,7 @@
       </c>
       <c r="B87" s="16"/>
       <c r="E87" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F87" s="1">
         <f t="shared" si="7"/>
@@ -6604,22 +6688,22 @@
       <c r="H87" s="14">
         <v>0</v>
       </c>
-      <c r="I87" s="23"/>
-      <c r="J87" s="23"/>
-      <c r="K87" s="23"/>
-      <c r="L87" s="23"/>
-      <c r="M87" s="23"/>
-      <c r="N87" s="23"/>
-      <c r="O87" s="23"/>
-      <c r="P87" s="23"/>
-      <c r="Q87" s="23"/>
-      <c r="R87" s="23"/>
-      <c r="S87" s="23"/>
-      <c r="T87" s="23"/>
-      <c r="U87" s="23"/>
-      <c r="V87" s="23"/>
-      <c r="W87" s="23"/>
-      <c r="X87" s="23"/>
+      <c r="I87" s="24"/>
+      <c r="J87" s="24"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="24"/>
+      <c r="M87" s="24"/>
+      <c r="N87" s="24"/>
+      <c r="O87" s="24"/>
+      <c r="P87" s="24"/>
+      <c r="Q87" s="24"/>
+      <c r="R87" s="24"/>
+      <c r="S87" s="24"/>
+      <c r="T87" s="24"/>
+      <c r="U87" s="24"/>
+      <c r="V87" s="24"/>
+      <c r="W87" s="24"/>
+      <c r="X87" s="24"/>
       <c r="Y87" s="4"/>
       <c r="Z87" s="4"/>
       <c r="AA87" s="4"/>
@@ -6643,7 +6727,7 @@
         <v>86</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F88" s="1">
         <f t="shared" si="7"/>
@@ -6695,7 +6779,7 @@
         <v>87</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F89" s="1">
         <f t="shared" si="7"/>
@@ -6747,15 +6831,15 @@
         <v>88</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F90" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G90" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="H90" s="14">
         <v>0</v>
@@ -6765,7 +6849,9 @@
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
-      <c r="N90" s="4"/>
+      <c r="N90" s="4">
+        <v>1040</v>
+      </c>
       <c r="O90" s="4"/>
       <c r="P90" s="4"/>
       <c r="Q90" s="4"/>
@@ -6802,7 +6888,7 @@
         <v>105</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F91" s="1">
         <f t="shared" si="7"/>
@@ -6857,7 +6943,7 @@
         <v>73</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F92" s="1">
         <f t="shared" si="7"/>
@@ -6914,7 +7000,7 @@
         <v>683909558</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F93" s="1">
         <f t="shared" si="7"/>
@@ -6966,7 +7052,7 @@
         <v>92</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F94" s="1">
         <f t="shared" si="7"/>
@@ -7017,8 +7103,8 @@
       <c r="A95" s="3">
         <v>93</v>
       </c>
-      <c r="E95" s="21" t="s">
-        <v>124</v>
+      <c r="E95" s="22" t="s">
+        <v>125</v>
       </c>
       <c r="F95" s="1">
         <f t="shared" si="7"/>
@@ -7076,7 +7162,7 @@
         <v>81</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F96" s="1">
         <f t="shared" si="7"/>

--- a/Daily Orders/February-2021-RetailerWiseOrder.xlsx
+++ b/Daily Orders/February-2021-RetailerWiseOrder.xlsx
@@ -438,11 +438,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -463,7 +463,83 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,58 +553,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -537,46 +561,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -591,7 +577,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,12 +598,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -667,6 +667,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -679,19 +727,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,19 +793,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,19 +817,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,97 +835,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,6 +858,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -876,24 +894,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -905,6 +905,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -926,30 +950,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -963,7 +963,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -981,130 +981,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1522,11 +1522,11 @@
   <dimension ref="A1:AS114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="K20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="L37" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1664,23 +1664,23 @@
       <c r="A2" s="8"/>
       <c r="B2" s="9">
         <f>SUM(F3:F121)</f>
-        <v>445700</v>
+        <v>535700</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="10">
         <f>SUM(G3:G121)</f>
-        <v>288600</v>
+        <v>382200</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="9">
         <f>G2/1.04+H2</f>
-        <v>445700</v>
+        <v>535700</v>
       </c>
       <c r="G2" s="10">
         <f t="shared" ref="G2:G16" si="0">SUM(I2:AM2)</f>
-        <v>288600</v>
+        <v>382200</v>
       </c>
       <c r="H2" s="12">
         <f>SUM(H3:H121)</f>
@@ -1712,11 +1712,11 @@
       </c>
       <c r="O2" s="2">
         <f t="shared" si="1"/>
-        <v>29120</v>
+        <v>68640</v>
       </c>
       <c r="P2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>54080</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="1"/>
@@ -1811,11 +1811,11 @@
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F34" si="2">G3/1.04+H3</f>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3120</v>
       </c>
       <c r="H3" s="14">
         <v>3000</v>
@@ -1827,7 +1827,9 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
+      <c r="P3" s="4">
+        <v>3120</v>
+      </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
@@ -1928,11 +1930,11 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" si="2"/>
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H5" s="14">
         <v>3500</v>
@@ -1951,8 +1953,12 @@
       <c r="N5" s="4">
         <v>1040</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
+      <c r="O5" s="4">
+        <v>1040</v>
+      </c>
+      <c r="P5" s="4">
+        <v>1040</v>
+      </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
@@ -2054,11 +2060,11 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" si="2"/>
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>12480</v>
+        <v>16640</v>
       </c>
       <c r="H7" s="14">
         <v>11000</v>
@@ -2079,8 +2085,12 @@
       <c r="N7" s="4">
         <v>2080</v>
       </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
+      <c r="O7" s="4">
+        <v>2080</v>
+      </c>
+      <c r="P7" s="4">
+        <v>2080</v>
+      </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
@@ -2179,11 +2189,11 @@
       </c>
       <c r="F9" s="1">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H9" s="14">
         <v>2000</v>
@@ -2194,7 +2204,9 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
+      <c r="O9" s="4">
+        <v>2080</v>
+      </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -2351,11 +2363,11 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
-        <v>3120</v>
+        <v>4160</v>
       </c>
       <c r="H12" s="14">
         <v>0</v>
@@ -2373,7 +2385,9 @@
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
+      <c r="P12" s="4">
+        <v>1040</v>
+      </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
@@ -2412,11 +2426,11 @@
       </c>
       <c r="F13" s="1">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>5200</v>
+        <v>10400</v>
       </c>
       <c r="H13" s="14">
         <v>0</v>
@@ -2429,7 +2443,9 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
+      <c r="O13" s="4">
+        <v>5200</v>
+      </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -2531,11 +2547,11 @@
       </c>
       <c r="F15" s="1">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H15" s="14">
         <v>2000</v>
@@ -2549,7 +2565,9 @@
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
+      <c r="P15" s="4">
+        <v>2080</v>
+      </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
@@ -2643,11 +2661,11 @@
       </c>
       <c r="F17" s="1">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" ref="G17:G39" si="3">SUM(I17:AM17)</f>
-        <v>3120</v>
+        <v>6240</v>
       </c>
       <c r="H17" s="14">
         <v>-1000</v>
@@ -2661,7 +2679,9 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
+      <c r="P17" s="4">
+        <v>3120</v>
+      </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
@@ -2700,11 +2720,11 @@
       </c>
       <c r="F18" s="1">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="3"/>
-        <v>5200</v>
+        <v>10400</v>
       </c>
       <c r="H18" s="14">
         <v>5000</v>
@@ -2717,7 +2737,9 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
+      <c r="O18" s="4">
+        <v>5200</v>
+      </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
@@ -2991,11 +3013,11 @@
       </c>
       <c r="F23" s="1">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="3"/>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="H23" s="14">
         <v>0</v>
@@ -3010,7 +3032,9 @@
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
+      <c r="O23" s="4">
+        <v>3120</v>
+      </c>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
@@ -3050,11 +3074,11 @@
       </c>
       <c r="F24" s="1">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="3"/>
-        <v>10400</v>
+        <v>15600</v>
       </c>
       <c r="H24" s="14">
         <v>0</v>
@@ -3070,7 +3094,9 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
+      <c r="P24" s="4">
+        <v>5200</v>
+      </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
@@ -3109,11 +3135,11 @@
       </c>
       <c r="F25" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3120</v>
       </c>
       <c r="H25" s="14">
         <v>3000</v>
@@ -3124,7 +3150,9 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
+      <c r="O25" s="4">
+        <v>3120</v>
+      </c>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
@@ -3334,11 +3362,11 @@
       </c>
       <c r="F29" s="1">
         <f t="shared" si="2"/>
-        <v>5500</v>
+        <v>10500</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="3"/>
-        <v>5720</v>
+        <v>10920</v>
       </c>
       <c r="H29" s="14">
         <v>0</v>
@@ -3353,7 +3381,9 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
+      <c r="O29" s="4">
+        <v>5200</v>
+      </c>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
@@ -3393,11 +3423,11 @@
       </c>
       <c r="F30" s="1">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="3"/>
-        <v>10400</v>
+        <v>15600</v>
       </c>
       <c r="H30" s="14">
         <v>0</v>
@@ -3413,7 +3443,9 @@
       </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
+      <c r="P30" s="4">
+        <v>5200</v>
+      </c>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
@@ -3511,11 +3543,11 @@
       </c>
       <c r="F32" s="1">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="3"/>
-        <v>3120</v>
+        <v>4160</v>
       </c>
       <c r="H32" s="14">
         <v>1000</v>
@@ -3533,7 +3565,9 @@
       <c r="O32" s="4">
         <v>1040</v>
       </c>
-      <c r="P32" s="4"/>
+      <c r="P32" s="4">
+        <v>1040</v>
+      </c>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
@@ -3572,11 +3606,11 @@
       </c>
       <c r="F33" s="1">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" si="3"/>
-        <v>2080</v>
+        <v>3120</v>
       </c>
       <c r="H33" s="14">
         <v>0</v>
@@ -3592,7 +3626,9 @@
       <c r="O33" s="4">
         <v>1040</v>
       </c>
-      <c r="P33" s="4"/>
+      <c r="P33" s="4">
+        <v>1040</v>
+      </c>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
@@ -3631,11 +3667,11 @@
       </c>
       <c r="F34" s="1">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H34" s="14">
         <v>2000</v>
@@ -3646,7 +3682,9 @@
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
+      <c r="O34" s="4">
+        <v>2080</v>
+      </c>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
@@ -3747,11 +3785,11 @@
       </c>
       <c r="F36" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="H36" s="14">
         <v>0</v>
@@ -3763,7 +3801,9 @@
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
+      <c r="P36" s="4">
+        <v>1040</v>
+      </c>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
@@ -3802,11 +3842,11 @@
       </c>
       <c r="F37" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" si="3"/>
-        <v>3120</v>
+        <v>6240</v>
       </c>
       <c r="H37" s="14">
         <v>0</v>
@@ -3820,7 +3860,9 @@
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
+      <c r="P37" s="4">
+        <v>3120</v>
+      </c>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
@@ -4441,11 +4483,11 @@
       </c>
       <c r="F48" s="1">
         <f t="shared" si="4"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" si="5"/>
-        <v>9360</v>
+        <v>12480</v>
       </c>
       <c r="H48" s="14">
         <v>3000</v>
@@ -4463,7 +4505,9 @@
         <v>3120</v>
       </c>
       <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
+      <c r="P48" s="4">
+        <v>3120</v>
+      </c>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
@@ -4502,11 +4546,11 @@
       </c>
       <c r="F49" s="1">
         <f t="shared" si="4"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="G49" s="1">
         <f t="shared" si="5"/>
-        <v>3120</v>
+        <v>6240</v>
       </c>
       <c r="H49" s="14">
         <v>3000</v>
@@ -4519,7 +4563,9 @@
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
+      <c r="O49" s="4">
+        <v>3120</v>
+      </c>
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
@@ -4559,11 +4605,11 @@
       </c>
       <c r="F50" s="1">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G50" s="1">
         <f t="shared" si="5"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H50" s="14">
         <v>0</v>
@@ -4576,7 +4622,9 @@
         <v>2080</v>
       </c>
       <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
+      <c r="O50" s="4">
+        <v>2080</v>
+      </c>
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
@@ -4671,11 +4719,11 @@
       </c>
       <c r="F52" s="1">
         <f t="shared" si="4"/>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G52" s="1">
         <f t="shared" si="5"/>
-        <v>4160</v>
+        <v>5200</v>
       </c>
       <c r="H52" s="14">
         <v>0</v>
@@ -4695,7 +4743,9 @@
       <c r="O52" s="4">
         <v>1040</v>
       </c>
-      <c r="P52" s="4"/>
+      <c r="P52" s="4">
+        <v>1040</v>
+      </c>
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
@@ -4904,11 +4954,11 @@
       </c>
       <c r="F56" s="1">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G56" s="1">
         <f t="shared" si="6"/>
-        <v>5200</v>
+        <v>10400</v>
       </c>
       <c r="H56" s="14">
         <v>5000</v>
@@ -4922,7 +4972,9 @@
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
+      <c r="P56" s="19">
+        <v>5200</v>
+      </c>
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
@@ -4961,11 +5013,11 @@
       </c>
       <c r="F57" s="1">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G57" s="1">
         <f t="shared" si="6"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H57" s="14">
         <v>0</v>
@@ -4979,7 +5031,9 @@
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
+      <c r="P57" s="4">
+        <v>2080</v>
+      </c>
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
@@ -5137,11 +5191,11 @@
       </c>
       <c r="F60" s="1">
         <f t="shared" si="4"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G60" s="1">
         <f t="shared" si="6"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H60" s="14">
         <v>2000</v>
@@ -5157,7 +5211,9 @@
         <v>2080</v>
       </c>
       <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
+      <c r="P60" s="4">
+        <v>2080</v>
+      </c>
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
@@ -5366,11 +5422,11 @@
       </c>
       <c r="F64" s="1">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G64" s="1">
         <f t="shared" si="6"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H64" s="14">
         <v>0</v>
@@ -5383,7 +5439,9 @@
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
+      <c r="O64" s="4">
+        <v>2080</v>
+      </c>
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
@@ -5712,11 +5770,11 @@
       </c>
       <c r="F70" s="1">
         <f t="shared" si="7"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="G70" s="1">
         <f t="shared" si="6"/>
-        <v>3120</v>
+        <v>4160</v>
       </c>
       <c r="H70" s="14">
         <v>2000</v>
@@ -5733,7 +5791,9 @@
         <v>1040</v>
       </c>
       <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
+      <c r="O70" s="4">
+        <v>1040</v>
+      </c>
       <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
@@ -5773,11 +5833,11 @@
       </c>
       <c r="F71" s="1">
         <f t="shared" si="7"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="G71" s="1">
         <f t="shared" si="6"/>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="H71" s="14">
         <v>6000</v>
@@ -5793,7 +5853,9 @@
         <v>3120</v>
       </c>
       <c r="O71" s="4"/>
-      <c r="P71" s="4"/>
+      <c r="P71" s="4">
+        <v>3120</v>
+      </c>
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
       <c r="S71" s="4"/>
@@ -5832,11 +5894,11 @@
       </c>
       <c r="F72" s="1">
         <f t="shared" si="7"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="G72" s="1">
         <f t="shared" si="6"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H72" s="14">
         <v>3000</v>
@@ -5852,7 +5914,9 @@
         <v>2080</v>
       </c>
       <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
+      <c r="P72" s="4">
+        <v>2080</v>
+      </c>
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
@@ -5945,11 +6009,11 @@
       </c>
       <c r="F74" s="1">
         <f t="shared" si="7"/>
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G74" s="1">
         <f t="shared" si="6"/>
-        <v>2080</v>
+        <v>3120</v>
       </c>
       <c r="H74" s="14">
         <v>0</v>
@@ -5965,7 +6029,9 @@
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
-      <c r="P74" s="4"/>
+      <c r="P74" s="4">
+        <v>1040</v>
+      </c>
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
@@ -6892,11 +6958,11 @@
       </c>
       <c r="F91" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G91" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="H91" s="14">
         <v>0</v>
@@ -6908,7 +6974,9 @@
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
-      <c r="P91" s="4"/>
+      <c r="P91" s="4">
+        <v>5200</v>
+      </c>
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
       <c r="S91" s="4"/>
@@ -7166,11 +7234,11 @@
       </c>
       <c r="F96" s="1">
         <f t="shared" si="7"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G96" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H96" s="5">
         <v>2000</v>
@@ -7181,7 +7249,9 @@
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
-      <c r="O96" s="4"/>
+      <c r="O96" s="4">
+        <v>2080</v>
+      </c>
       <c r="P96" s="4"/>
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>

--- a/Daily Orders/February-2021-RetailerWiseOrder.xlsx
+++ b/Daily Orders/February-2021-RetailerWiseOrder.xlsx
@@ -45,12 +45,35 @@
         </r>
       </text>
     </comment>
+    <comment ref="V16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+1040-Auto
+1040-Auto</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="127">
   <si>
     <t>S.No.</t>
   </si>
@@ -438,11 +461,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -461,16 +484,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,6 +537,44 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -507,8 +582,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,45 +607,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -570,29 +615,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,12 +628,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -667,19 +690,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,7 +738,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,7 +762,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,19 +786,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,13 +804,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,73 +852,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,13 +870,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,9 +886,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -875,6 +900,60 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,67 +973,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -963,13 +986,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -981,134 +1004,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1192,6 +1215,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1522,11 +1549,11 @@
   <dimension ref="A1:AS114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="L37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="R24" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P53" sqref="P53"/>
+      <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1664,23 +1691,23 @@
       <c r="A2" s="8"/>
       <c r="B2" s="9">
         <f>SUM(F3:F121)</f>
-        <v>535700</v>
+        <v>791700</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="10">
         <f>SUM(G3:G121)</f>
-        <v>382200</v>
+        <v>648440</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="9">
         <f>G2/1.04+H2</f>
-        <v>535700</v>
+        <v>791700</v>
       </c>
       <c r="G2" s="10">
         <f t="shared" ref="G2:G16" si="0">SUM(I2:AM2)</f>
-        <v>382200</v>
+        <v>648440</v>
       </c>
       <c r="H2" s="12">
         <f>SUM(H3:H121)</f>
@@ -1720,27 +1747,27 @@
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>46280</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28080</v>
       </c>
       <c r="S2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>42640</v>
       </c>
       <c r="T2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>58760</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>42640</v>
       </c>
       <c r="V2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>47840</v>
       </c>
       <c r="W2" s="2">
         <f t="shared" si="1"/>
@@ -1868,11 +1895,11 @@
       </c>
       <c r="F4" s="1">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H4" s="14">
         <v>2000</v>
@@ -1892,9 +1919,13 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
+      <c r="T4" s="4">
+        <v>1040</v>
+      </c>
       <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
+      <c r="V4" s="4">
+        <v>1040</v>
+      </c>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
@@ -1930,11 +1961,11 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" si="2"/>
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
-        <v>6240</v>
+        <v>7280</v>
       </c>
       <c r="H5" s="14">
         <v>3500</v>
@@ -1962,7 +1993,9 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
+      <c r="T5" s="4">
+        <v>1040</v>
+      </c>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
@@ -2000,11 +2033,11 @@
       </c>
       <c r="F6" s="1">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
-        <v>5200</v>
+        <v>10400</v>
       </c>
       <c r="H6" s="14">
         <v>5000</v>
@@ -2023,7 +2056,9 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
+      <c r="U6" s="4">
+        <v>5200</v>
+      </c>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
@@ -2060,11 +2095,11 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" si="2"/>
-        <v>27000</v>
+        <v>41000</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>16640</v>
+        <v>31200</v>
       </c>
       <c r="H7" s="14">
         <v>11000</v>
@@ -2091,12 +2126,24 @@
       <c r="P7" s="4">
         <v>2080</v>
       </c>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
+      <c r="Q7" s="4">
+        <v>4160</v>
+      </c>
+      <c r="R7" s="4">
+        <v>2080</v>
+      </c>
+      <c r="S7" s="4">
+        <v>2080</v>
+      </c>
+      <c r="T7" s="4">
+        <v>2080</v>
+      </c>
+      <c r="U7" s="4">
+        <v>2080</v>
+      </c>
+      <c r="V7" s="4">
+        <v>2080</v>
+      </c>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
@@ -2132,11 +2179,11 @@
       </c>
       <c r="F8" s="1">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H8" s="14">
         <v>0</v>
@@ -2154,7 +2201,9 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
+      <c r="T8" s="4">
+        <v>2080</v>
+      </c>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
@@ -2249,11 +2298,11 @@
       </c>
       <c r="F10" s="1">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
-        <v>5200</v>
+        <v>15600</v>
       </c>
       <c r="H10" s="14">
         <v>5000</v>
@@ -2268,12 +2317,16 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
+      <c r="Q10" s="4">
+        <v>5200</v>
+      </c>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
+      <c r="V10" s="4">
+        <v>5200</v>
+      </c>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
@@ -2306,11 +2359,11 @@
       </c>
       <c r="F11" s="1">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H11" s="14">
         <v>2000</v>
@@ -2328,7 +2381,9 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
+      <c r="T11" s="4">
+        <v>2080</v>
+      </c>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
@@ -2363,11 +2418,11 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
-        <v>4160</v>
+        <v>5200</v>
       </c>
       <c r="H12" s="14">
         <v>0</v>
@@ -2392,7 +2447,9 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
+      <c r="U12" s="4">
+        <v>1040</v>
+      </c>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
@@ -2426,11 +2483,11 @@
       </c>
       <c r="F13" s="1">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>10400</v>
+        <v>15600</v>
       </c>
       <c r="H13" s="14">
         <v>0</v>
@@ -2450,7 +2507,9 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
+      <c r="T13" s="4">
+        <v>5200</v>
+      </c>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
@@ -2485,11 +2544,11 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" si="2"/>
-        <v>20500</v>
+        <v>30500</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
-        <v>10400</v>
+        <v>20800</v>
       </c>
       <c r="H14" s="14">
         <v>10500</v>
@@ -2506,10 +2565,14 @@
       </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
+      <c r="Q14" s="4">
+        <v>5200</v>
+      </c>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
+      <c r="T14" s="4">
+        <v>5200</v>
+      </c>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
@@ -2547,11 +2610,11 @@
       </c>
       <c r="F15" s="1">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="0"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H15" s="14">
         <v>2000</v>
@@ -2573,7 +2636,9 @@
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
+      <c r="V15" s="4">
+        <v>2080</v>
+      </c>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
@@ -2606,11 +2671,11 @@
       </c>
       <c r="F16" s="1">
         <f t="shared" si="2"/>
-        <v>2200</v>
+        <v>5200</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3120</v>
       </c>
       <c r="H16" s="14">
         <v>2200</v>
@@ -2623,12 +2688,16 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
+      <c r="Q16" s="4">
+        <v>1040</v>
+      </c>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
+      <c r="V16" s="4">
+        <v>2080</v>
+      </c>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
@@ -2661,11 +2730,11 @@
       </c>
       <c r="F17" s="1">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" ref="G17:G39" si="3">SUM(I17:AM17)</f>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="H17" s="14">
         <v>-1000</v>
@@ -2687,7 +2756,9 @@
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
+      <c r="V17" s="4">
+        <v>3120</v>
+      </c>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
@@ -2720,11 +2791,11 @@
       </c>
       <c r="F18" s="1">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="3"/>
-        <v>10400</v>
+        <v>15600</v>
       </c>
       <c r="H18" s="14">
         <v>5000</v>
@@ -2745,7 +2816,9 @@
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
+      <c r="U18" s="4">
+        <v>5200</v>
+      </c>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
@@ -2779,11 +2852,11 @@
       </c>
       <c r="F19" s="1">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="3"/>
-        <v>2080</v>
+        <v>6240</v>
       </c>
       <c r="H19" s="14">
         <v>0</v>
@@ -2798,10 +2871,14 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
+      <c r="Q19" s="4">
+        <v>2080</v>
+      </c>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
+      <c r="T19" s="4">
+        <v>2080</v>
+      </c>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
@@ -2895,11 +2972,11 @@
       </c>
       <c r="F21" s="1">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="3"/>
-        <v>10400</v>
+        <v>15600</v>
       </c>
       <c r="H21" s="14">
         <v>0</v>
@@ -2917,7 +2994,9 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
+      <c r="R21" s="4">
+        <v>5200</v>
+      </c>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
@@ -2954,11 +3033,11 @@
       </c>
       <c r="F22" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="3"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H22" s="14">
         <v>1000</v>
@@ -2976,9 +3055,13 @@
       </c>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
+      <c r="R22" s="4">
+        <v>1040</v>
+      </c>
       <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
+      <c r="T22" s="4">
+        <v>1040</v>
+      </c>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
@@ -3013,11 +3096,11 @@
       </c>
       <c r="F23" s="1">
         <f t="shared" si="2"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="3"/>
-        <v>9360</v>
+        <v>12480</v>
       </c>
       <c r="H23" s="14">
         <v>0</v>
@@ -3039,7 +3122,9 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
+      <c r="T23" s="4">
+        <v>3120</v>
+      </c>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
@@ -3074,11 +3159,11 @@
       </c>
       <c r="F24" s="1">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="3"/>
-        <v>15600</v>
+        <v>20800</v>
       </c>
       <c r="H24" s="14">
         <v>0</v>
@@ -3099,7 +3184,9 @@
       </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
+      <c r="S24" s="4">
+        <v>5200</v>
+      </c>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
@@ -3192,11 +3279,11 @@
       </c>
       <c r="F26" s="1">
         <f t="shared" si="2"/>
-        <v>6500</v>
+        <v>10500</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="3"/>
-        <v>4160</v>
+        <v>8320</v>
       </c>
       <c r="H26" s="14">
         <v>2500</v>
@@ -3215,10 +3302,14 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
+      <c r="S26" s="4">
+        <v>2080</v>
+      </c>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
+      <c r="V26" s="4">
+        <v>2080</v>
+      </c>
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
@@ -3251,11 +3342,11 @@
       </c>
       <c r="F27" s="1">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G27" s="1">
         <f>SUM(J27:AM27)</f>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H27" s="14">
         <v>0</v>
@@ -3270,7 +3361,9 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
+      <c r="R27" s="4">
+        <v>2080</v>
+      </c>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
@@ -3307,11 +3400,11 @@
       </c>
       <c r="F28" s="1">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H28" s="14">
         <v>2000</v>
@@ -3326,7 +3419,9 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
+      <c r="S28" s="4">
+        <v>2080</v>
+      </c>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
@@ -3362,11 +3457,11 @@
       </c>
       <c r="F29" s="1">
         <f t="shared" si="2"/>
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="3"/>
-        <v>10920</v>
+        <v>16640</v>
       </c>
       <c r="H29" s="14">
         <v>0</v>
@@ -3388,8 +3483,12 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
+      <c r="T29" s="19">
+        <v>520</v>
+      </c>
+      <c r="U29" s="4">
+        <v>5200</v>
+      </c>
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
@@ -3423,11 +3522,11 @@
       </c>
       <c r="F30" s="1">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="3"/>
-        <v>15600</v>
+        <v>26000</v>
       </c>
       <c r="H30" s="14">
         <v>0</v>
@@ -3448,10 +3547,14 @@
       </c>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
+      <c r="S30" s="4">
+        <v>5200</v>
+      </c>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
+      <c r="V30" s="4">
+        <v>5200</v>
+      </c>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
@@ -3484,11 +3587,11 @@
       </c>
       <c r="F31" s="1">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="3"/>
-        <v>4160</v>
+        <v>8320</v>
       </c>
       <c r="H31" s="14">
         <v>1000</v>
@@ -3507,10 +3610,14 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
+      <c r="S31" s="4">
+        <v>2080</v>
+      </c>
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
+      <c r="V31" s="4">
+        <v>2080</v>
+      </c>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
@@ -3543,11 +3650,11 @@
       </c>
       <c r="F32" s="1">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="3"/>
-        <v>4160</v>
+        <v>5200</v>
       </c>
       <c r="H32" s="14">
         <v>1000</v>
@@ -3573,7 +3680,9 @@
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
+      <c r="V32" s="4">
+        <v>1040</v>
+      </c>
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
@@ -3606,11 +3715,11 @@
       </c>
       <c r="F33" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" si="3"/>
-        <v>3120</v>
+        <v>4160</v>
       </c>
       <c r="H33" s="14">
         <v>0</v>
@@ -3630,7 +3739,9 @@
         <v>1040</v>
       </c>
       <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
+      <c r="R33" s="4">
+        <v>1040</v>
+      </c>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
@@ -3724,11 +3835,11 @@
       </c>
       <c r="F35" s="1">
         <f t="shared" ref="F35:F67" si="4">G35/1.04+H35</f>
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" si="3"/>
-        <v>9360</v>
+        <v>18720</v>
       </c>
       <c r="H35" s="14">
         <v>0</v>
@@ -3748,11 +3859,17 @@
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
+      <c r="R35" s="4">
+        <v>3120</v>
+      </c>
       <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
+      <c r="T35" s="4">
+        <v>3120</v>
+      </c>
       <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
+      <c r="V35" s="4">
+        <v>3120</v>
+      </c>
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
@@ -3842,11 +3959,11 @@
       </c>
       <c r="F37" s="1">
         <f t="shared" si="4"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" si="3"/>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="H37" s="14">
         <v>0</v>
@@ -3868,7 +3985,9 @@
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
+      <c r="V37" s="4">
+        <v>3120</v>
+      </c>
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
@@ -3904,11 +4023,11 @@
       </c>
       <c r="F38" s="1">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G38" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H38" s="14">
         <v>2000</v>
@@ -3925,7 +4044,9 @@
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
+      <c r="U38" s="4">
+        <v>2080</v>
+      </c>
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
@@ -3959,11 +4080,11 @@
       </c>
       <c r="F39" s="1">
         <f t="shared" si="4"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G39" s="1">
         <f t="shared" si="3"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H39" s="14">
         <v>2000</v>
@@ -3980,7 +4101,9 @@
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
+      <c r="S39" s="4">
+        <v>2080</v>
+      </c>
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
@@ -4073,11 +4196,11 @@
       </c>
       <c r="F41" s="1">
         <f t="shared" si="4"/>
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="G41" s="1">
         <f t="shared" ref="G41:G53" si="5">SUM(I41:AM41)</f>
-        <v>12480</v>
+        <v>21840</v>
       </c>
       <c r="H41" s="14">
         <v>1500</v>
@@ -4098,11 +4221,17 @@
         <v>3120</v>
       </c>
       <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
+      <c r="Q41" s="4">
+        <v>3120</v>
+      </c>
       <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
+      <c r="S41" s="4">
+        <v>3120</v>
+      </c>
       <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
+      <c r="U41" s="4">
+        <v>3120</v>
+      </c>
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
@@ -4136,11 +4265,11 @@
       </c>
       <c r="F42" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G42" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H42" s="14">
         <v>0</v>
@@ -4156,7 +4285,9 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
+      <c r="T42" s="4">
+        <v>2080</v>
+      </c>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
@@ -4194,11 +4325,11 @@
       </c>
       <c r="F43" s="1">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="H43" s="14">
         <v>1000</v>
@@ -4215,7 +4346,9 @@
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
+      <c r="U43" s="4">
+        <v>1040</v>
+      </c>
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
       <c r="X43" s="4"/>
@@ -4249,11 +4382,11 @@
       </c>
       <c r="F44" s="1">
         <f t="shared" si="4"/>
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="G44" s="1">
         <f t="shared" si="5"/>
-        <v>6240</v>
+        <v>12480</v>
       </c>
       <c r="H44" s="14">
         <v>0</v>
@@ -4271,11 +4404,15 @@
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
+      <c r="R44" s="4">
+        <v>3120</v>
+      </c>
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
+      <c r="V44" s="4">
+        <v>3120</v>
+      </c>
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
       <c r="Y44" s="4"/>
@@ -4308,11 +4445,11 @@
       </c>
       <c r="F45" s="1">
         <f t="shared" si="4"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="G45" s="1">
         <f t="shared" si="5"/>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="H45" s="14">
         <v>3000</v>
@@ -4333,7 +4470,9 @@
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
-      <c r="U45" s="4"/>
+      <c r="U45" s="4">
+        <v>3120</v>
+      </c>
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
       <c r="X45" s="4"/>
@@ -4367,11 +4506,11 @@
       </c>
       <c r="F46" s="1">
         <f t="shared" si="4"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="G46" s="1">
         <f t="shared" si="5"/>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="H46" s="14">
         <v>0</v>
@@ -4390,7 +4529,9 @@
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
+      <c r="S46" s="4">
+        <v>3120</v>
+      </c>
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
@@ -4483,11 +4624,11 @@
       </c>
       <c r="F48" s="1">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" si="5"/>
-        <v>12480</v>
+        <v>15600</v>
       </c>
       <c r="H48" s="14">
         <v>3000</v>
@@ -4512,7 +4653,9 @@
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
-      <c r="U48" s="4"/>
+      <c r="U48" s="4">
+        <v>3120</v>
+      </c>
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
       <c r="X48" s="4"/>
@@ -4546,11 +4689,11 @@
       </c>
       <c r="F49" s="1">
         <f t="shared" si="4"/>
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="G49" s="1">
         <f t="shared" si="5"/>
-        <v>6240</v>
+        <v>15600</v>
       </c>
       <c r="H49" s="14">
         <v>3000</v>
@@ -4567,12 +4710,18 @@
         <v>3120</v>
       </c>
       <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
+      <c r="Q49" s="4">
+        <v>3120</v>
+      </c>
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
-      <c r="T49" s="4"/>
+      <c r="T49" s="4">
+        <v>3120</v>
+      </c>
       <c r="U49" s="4"/>
-      <c r="V49" s="4"/>
+      <c r="V49" s="4">
+        <v>3120</v>
+      </c>
       <c r="W49" s="4"/>
       <c r="X49" s="4"/>
       <c r="Y49" s="4"/>
@@ -4605,11 +4754,11 @@
       </c>
       <c r="F50" s="1">
         <f t="shared" si="4"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G50" s="1">
         <f t="shared" si="5"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H50" s="14">
         <v>0</v>
@@ -4630,7 +4779,9 @@
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
       <c r="T50" s="4"/>
-      <c r="U50" s="4"/>
+      <c r="U50" s="4">
+        <v>2080</v>
+      </c>
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
       <c r="X50" s="4"/>
@@ -4719,11 +4870,11 @@
       </c>
       <c r="F52" s="1">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="G52" s="1">
         <f t="shared" si="5"/>
-        <v>5200</v>
+        <v>8320</v>
       </c>
       <c r="H52" s="14">
         <v>0</v>
@@ -4746,12 +4897,18 @@
       <c r="P52" s="4">
         <v>1040</v>
       </c>
-      <c r="Q52" s="4"/>
+      <c r="Q52" s="4">
+        <v>1040</v>
+      </c>
       <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
+      <c r="S52" s="4">
+        <v>1040</v>
+      </c>
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
-      <c r="V52" s="4"/>
+      <c r="V52" s="4">
+        <v>1040</v>
+      </c>
       <c r="W52" s="4"/>
       <c r="X52" s="4"/>
       <c r="Y52" s="4"/>
@@ -4784,11 +4941,11 @@
       </c>
       <c r="F53" s="1">
         <f t="shared" si="4"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="G53" s="1">
         <f t="shared" si="5"/>
-        <v>2080</v>
+        <v>6240</v>
       </c>
       <c r="H53" s="14">
         <v>2000</v>
@@ -4805,8 +4962,12 @@
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
-      <c r="S53" s="4"/>
-      <c r="T53" s="4"/>
+      <c r="S53" s="4">
+        <v>2080</v>
+      </c>
+      <c r="T53" s="4">
+        <v>2080</v>
+      </c>
       <c r="U53" s="4"/>
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
@@ -4897,11 +5058,11 @@
       </c>
       <c r="F55" s="1">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G55" s="1">
         <f t="shared" si="6"/>
-        <v>2080</v>
+        <v>6240</v>
       </c>
       <c r="H55" s="14">
         <v>0</v>
@@ -4916,10 +5077,14 @@
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
+      <c r="Q55" s="4">
+        <v>2080</v>
+      </c>
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
-      <c r="T55" s="4"/>
+      <c r="T55" s="4">
+        <v>2080</v>
+      </c>
       <c r="U55" s="4"/>
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
@@ -4954,11 +5119,11 @@
       </c>
       <c r="F56" s="1">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="G56" s="1">
         <f t="shared" si="6"/>
-        <v>10400</v>
+        <v>20800</v>
       </c>
       <c r="H56" s="14">
         <v>5000</v>
@@ -4975,10 +5140,14 @@
       <c r="P56" s="19">
         <v>5200</v>
       </c>
-      <c r="Q56" s="4"/>
+      <c r="Q56" s="4">
+        <v>5200</v>
+      </c>
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
+      <c r="T56" s="4">
+        <v>5200</v>
+      </c>
       <c r="U56" s="4"/>
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
@@ -5013,11 +5182,11 @@
       </c>
       <c r="F57" s="1">
         <f t="shared" si="4"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G57" s="1">
         <f t="shared" si="6"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="H57" s="14">
         <v>0</v>
@@ -5036,7 +5205,9 @@
       </c>
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
+      <c r="S57" s="4">
+        <v>2080</v>
+      </c>
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
       <c r="V57" s="4"/>
@@ -5073,11 +5244,11 @@
       </c>
       <c r="F58" s="1">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G58" s="1">
         <f t="shared" si="6"/>
-        <v>5200</v>
+        <v>10400</v>
       </c>
       <c r="H58" s="14">
         <v>5000</v>
@@ -5093,7 +5264,9 @@
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
+      <c r="R58" s="4">
+        <v>5200</v>
+      </c>
       <c r="S58" s="4"/>
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
@@ -5191,11 +5364,11 @@
       </c>
       <c r="F60" s="1">
         <f t="shared" si="4"/>
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="G60" s="1">
         <f t="shared" si="6"/>
-        <v>6240</v>
+        <v>10400</v>
       </c>
       <c r="H60" s="14">
         <v>2000</v>
@@ -5216,9 +5389,13 @@
       </c>
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
+      <c r="S60" s="4">
+        <v>2080</v>
+      </c>
       <c r="T60" s="4"/>
-      <c r="U60" s="4"/>
+      <c r="U60" s="4">
+        <v>2080</v>
+      </c>
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
       <c r="X60" s="4"/>
@@ -5253,11 +5430,11 @@
       </c>
       <c r="F61" s="1">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G61" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H61" s="14">
         <v>2000</v>
@@ -5273,7 +5450,9 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
-      <c r="T61" s="4"/>
+      <c r="T61" s="4">
+        <v>2080</v>
+      </c>
       <c r="U61" s="4"/>
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
@@ -5308,11 +5487,11 @@
       </c>
       <c r="F62" s="1">
         <f t="shared" si="4"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G62" s="1">
         <f t="shared" si="6"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H62" s="14">
         <v>2000</v>
@@ -5329,7 +5508,9 @@
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
-      <c r="S62" s="4"/>
+      <c r="S62" s="4">
+        <v>2080</v>
+      </c>
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
       <c r="V62" s="4"/>
@@ -5481,11 +5662,11 @@
       </c>
       <c r="F65" s="1">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G65" s="1">
         <f t="shared" si="6"/>
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="H65" s="14">
         <v>0</v>
@@ -5501,7 +5682,9 @@
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
-      <c r="R65" s="4"/>
+      <c r="R65" s="4">
+        <v>1040</v>
+      </c>
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
@@ -5538,11 +5721,11 @@
       </c>
       <c r="F66" s="1">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="G66" s="1">
         <f t="shared" si="6"/>
-        <v>10400</v>
+        <v>20800</v>
       </c>
       <c r="H66" s="14">
         <v>5000</v>
@@ -5559,10 +5742,14 @@
       </c>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
+      <c r="Q66" s="4">
+        <v>5200</v>
+      </c>
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
-      <c r="T66" s="4"/>
+      <c r="T66" s="4">
+        <v>5200</v>
+      </c>
       <c r="U66" s="4"/>
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
@@ -5597,11 +5784,11 @@
       </c>
       <c r="F67" s="1">
         <f t="shared" si="4"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="G67" s="1">
         <f t="shared" si="6"/>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="H67" s="14">
         <v>0</v>
@@ -5620,7 +5807,9 @@
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
-      <c r="S67" s="4"/>
+      <c r="S67" s="4">
+        <v>3120</v>
+      </c>
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
       <c r="V67" s="4"/>
@@ -5657,11 +5846,11 @@
       </c>
       <c r="F68" s="1">
         <f t="shared" ref="F68:F96" si="7">G68/1.04+H68</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G68" s="1">
         <f t="shared" si="6"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="H68" s="14">
         <v>0</v>
@@ -5677,7 +5866,9 @@
       </c>
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
-      <c r="R68" s="4"/>
+      <c r="R68" s="4">
+        <v>2080</v>
+      </c>
       <c r="S68" s="4"/>
       <c r="T68" s="4"/>
       <c r="U68" s="4"/>
@@ -5770,11 +5961,11 @@
       </c>
       <c r="F70" s="1">
         <f t="shared" si="7"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="G70" s="1">
         <f t="shared" si="6"/>
-        <v>4160</v>
+        <v>7280</v>
       </c>
       <c r="H70" s="14">
         <v>2000</v>
@@ -5796,10 +5987,16 @@
       </c>
       <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
-      <c r="R70" s="4"/>
+      <c r="R70" s="4">
+        <v>1040</v>
+      </c>
       <c r="S70" s="4"/>
-      <c r="T70" s="4"/>
-      <c r="U70" s="4"/>
+      <c r="T70" s="4">
+        <v>1040</v>
+      </c>
+      <c r="U70" s="4">
+        <v>1040</v>
+      </c>
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
       <c r="X70" s="4"/>
@@ -5833,11 +6030,11 @@
       </c>
       <c r="F71" s="1">
         <f t="shared" si="7"/>
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="G71" s="1">
         <f t="shared" si="6"/>
-        <v>9360</v>
+        <v>18720</v>
       </c>
       <c r="H71" s="14">
         <v>6000</v>
@@ -5856,12 +6053,18 @@
       <c r="P71" s="4">
         <v>3120</v>
       </c>
-      <c r="Q71" s="4"/>
+      <c r="Q71" s="4">
+        <v>3120</v>
+      </c>
       <c r="R71" s="4"/>
       <c r="S71" s="4"/>
       <c r="T71" s="4"/>
-      <c r="U71" s="4"/>
-      <c r="V71" s="4"/>
+      <c r="U71" s="4">
+        <v>3120</v>
+      </c>
+      <c r="V71" s="4">
+        <v>3120</v>
+      </c>
       <c r="W71" s="4"/>
       <c r="X71" s="4"/>
       <c r="Y71" s="4"/>
@@ -5894,11 +6097,11 @@
       </c>
       <c r="F72" s="1">
         <f t="shared" si="7"/>
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="G72" s="1">
         <f t="shared" si="6"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="H72" s="14">
         <v>3000</v>
@@ -5920,7 +6123,9 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
-      <c r="T72" s="4"/>
+      <c r="T72" s="4">
+        <v>2080</v>
+      </c>
       <c r="U72" s="4"/>
       <c r="V72" s="4"/>
       <c r="W72" s="4"/>
@@ -6009,11 +6214,11 @@
       </c>
       <c r="F74" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G74" s="1">
         <f t="shared" si="6"/>
-        <v>3120</v>
+        <v>4160</v>
       </c>
       <c r="H74" s="14">
         <v>0</v>
@@ -6034,7 +6239,9 @@
       </c>
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
-      <c r="S74" s="4"/>
+      <c r="S74" s="4">
+        <v>1040</v>
+      </c>
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
       <c r="V74" s="4"/>
@@ -6298,11 +6505,11 @@
       </c>
       <c r="F79" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G79" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H79" s="14">
         <v>0</v>
@@ -6319,7 +6526,9 @@
       <c r="R79" s="4"/>
       <c r="S79" s="4"/>
       <c r="T79" s="4"/>
-      <c r="U79" s="4"/>
+      <c r="U79" s="19">
+        <v>2080</v>
+      </c>
       <c r="V79" s="4"/>
       <c r="W79" s="4"/>
       <c r="X79" s="4"/>
@@ -6354,11 +6563,11 @@
       </c>
       <c r="F80" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="G80" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="H80" s="14">
         <v>3000</v>
@@ -6371,7 +6580,9 @@
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
       <c r="P80" s="4"/>
-      <c r="Q80" s="4"/>
+      <c r="Q80" s="19">
+        <v>520</v>
+      </c>
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
       <c r="T80" s="4"/>
@@ -6468,11 +6679,11 @@
       </c>
       <c r="F82" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G82" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="H82" s="14">
         <v>0</v>
@@ -6487,7 +6698,9 @@
       <c r="P82" s="24"/>
       <c r="Q82" s="24"/>
       <c r="R82" s="24"/>
-      <c r="S82" s="24"/>
+      <c r="S82" s="24">
+        <v>2080</v>
+      </c>
       <c r="T82" s="24"/>
       <c r="U82" s="24"/>
       <c r="V82" s="24"/>
@@ -6524,11 +6737,11 @@
       </c>
       <c r="F83" s="1">
         <f t="shared" si="7"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G83" s="1">
         <f>SUM(J83:AM83)</f>
-        <v>10400</v>
+        <v>20800</v>
       </c>
       <c r="H83" s="14">
         <v>0</v>
@@ -6543,12 +6756,16 @@
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
-      <c r="Q83" s="4"/>
+      <c r="Q83" s="4">
+        <v>5200</v>
+      </c>
       <c r="R83" s="4"/>
       <c r="S83" s="4"/>
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
-      <c r="V83" s="4"/>
+      <c r="V83" s="4">
+        <v>5200</v>
+      </c>
       <c r="W83" s="4"/>
       <c r="X83" s="4"/>
       <c r="Y83" s="4"/>
@@ -6632,11 +6849,11 @@
       </c>
       <c r="F85" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G85" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="H85" s="14">
         <v>0</v>
@@ -6650,7 +6867,9 @@
       <c r="O85" s="24"/>
       <c r="P85" s="24"/>
       <c r="Q85" s="24"/>
-      <c r="R85" s="24"/>
+      <c r="R85" s="25">
+        <v>1040</v>
+      </c>
       <c r="S85" s="24"/>
       <c r="T85" s="4"/>
       <c r="U85" s="4"/>
@@ -6685,16 +6904,19 @@
       <c r="C86" s="3">
         <v>683909556</v>
       </c>
+      <c r="D86" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="E86" s="17" t="s">
         <v>116</v>
       </c>
       <c r="F86" s="1">
         <f t="shared" si="7"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G86" s="1">
         <f t="shared" si="8"/>
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="H86" s="14">
         <v>0</v>
@@ -6713,7 +6935,9 @@
       <c r="R86" s="24"/>
       <c r="S86" s="24"/>
       <c r="T86" s="24"/>
-      <c r="U86" s="24"/>
+      <c r="U86" s="24">
+        <v>1040</v>
+      </c>
       <c r="V86" s="24"/>
       <c r="W86" s="24"/>
       <c r="X86" s="24"/>
@@ -7015,11 +7239,11 @@
       </c>
       <c r="F92" s="1">
         <f t="shared" si="7"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G92" s="1">
         <f t="shared" si="8"/>
-        <v>5200</v>
+        <v>10400</v>
       </c>
       <c r="H92" s="14">
         <v>0</v>
@@ -7037,7 +7261,9 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
       <c r="S92" s="4"/>
-      <c r="T92" s="4"/>
+      <c r="T92" s="4">
+        <v>5200</v>
+      </c>
       <c r="U92" s="4"/>
       <c r="V92" s="4"/>
       <c r="W92" s="4"/>
@@ -7066,6 +7292,9 @@
       </c>
       <c r="C93" s="3">
         <v>683909558</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="E93" s="13" t="s">
         <v>123</v>
